--- a/result_ERROR.xlsx
+++ b/result_ERROR.xlsx
@@ -27,7 +27,7 @@
     <numFmt numFmtId="166" formatCode="###0;###0"/>
     <numFmt numFmtId="167" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="38">
+  <fonts count="39">
     <font>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -260,6 +260,11 @@
       <b val="1"/>
       <color rgb="FF000000"/>
       <sz val="11"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <b val="1"/>
+      <sz val="12"/>
     </font>
   </fonts>
   <fills count="4">
@@ -282,7 +287,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -317,6 +322,86 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="00000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="00000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="00000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="00000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="00000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="00000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="00000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="00000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="00000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="00000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="00000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="00000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -326,7 +411,7 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
@@ -623,6 +708,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1868,16 +1958,48 @@
       <c r="B20" s="20" t="n"/>
     </row>
     <row r="21" ht="27.75" customHeight="1">
-      <c r="A21" s="20" t="n"/>
-      <c r="B21" s="20" t="n"/>
+      <c r="A21" s="112" t="inlineStr">
+        <is>
+          <t>it good</t>
+        </is>
+      </c>
+      <c r="B21" s="112" t="inlineStr">
+        <is>
+          <t>P.O. Nº</t>
+        </is>
+      </c>
+      <c r="C21" s="112" t="inlineStr">
+        <is>
+          <t>ITEM Nº</t>
+        </is>
+      </c>
+      <c r="D21" s="112" t="inlineStr">
+        <is>
+          <t>Quantity</t>
+        </is>
+      </c>
+      <c r="E21" s="113" t="n"/>
+      <c r="F21" s="112" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
     </row>
     <row r="22" ht="27.75" customHeight="1">
-      <c r="A22" s="21" t="n"/>
-      <c r="B22" s="21" t="n"/>
-      <c r="C22" s="22" t="n"/>
-      <c r="D22" s="22" t="n"/>
-      <c r="E22" s="22" t="n"/>
-      <c r="F22" s="22" t="n"/>
+      <c r="A22" s="114" t="n"/>
+      <c r="B22" s="114" t="n"/>
+      <c r="C22" s="114" t="n"/>
+      <c r="D22" s="112" t="inlineStr">
+        <is>
+          <t>PCS</t>
+        </is>
+      </c>
+      <c r="E22" s="112" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="F22" s="114" t="n"/>
       <c r="G22" s="18" t="n"/>
       <c r="L22" s="49" t="n"/>
       <c r="M22" s="50" t="n"/>
@@ -2101,18 +2223,23 @@
     <row r="51" ht="17.25" customHeight="1"/>
     <row r="63" ht="15" customHeight="1"/>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="16">
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="B24:C24"/>
+    <mergeCell ref="F21:F22"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A27:G27"/>
     <mergeCell ref="A23:C23"/>
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="A6:G6"/>
+    <mergeCell ref="A21:A22"/>
     <mergeCell ref="A4:G4"/>
+    <mergeCell ref="C21:C22"/>
     <mergeCell ref="A26:G26"/>
     <mergeCell ref="A2:G2"/>
+    <mergeCell ref="B21:B22"/>
     <mergeCell ref="A5:G5"/>
+    <mergeCell ref="D21:E21"/>
   </mergeCells>
   <conditionalFormatting sqref="J23:J35">
     <cfRule type="duplicateValues" priority="1" stopIfTrue="1"/>

--- a/result_ERROR.xlsx
+++ b/result_ERROR.xlsx
@@ -1960,7 +1960,7 @@
     <row r="21" ht="27.75" customHeight="1">
       <c r="A21" s="112" t="inlineStr">
         <is>
-          <t>it good</t>
+          <t>NO.</t>
         </is>
       </c>
       <c r="B21" s="112" t="inlineStr">
@@ -1975,13 +1975,23 @@
       </c>
       <c r="D21" s="112" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="E21" s="112" t="inlineStr">
+        <is>
           <t>Quantity</t>
         </is>
       </c>
-      <c r="E21" s="113" t="n"/>
-      <c r="F21" s="112" t="inlineStr">
-        <is>
-          <t>Description</t>
+      <c r="F21" s="113" t="n"/>
+      <c r="G21" s="112" t="inlineStr">
+        <is>
+          <t>Unit price (USD)</t>
+        </is>
+      </c>
+      <c r="H21" s="112" t="inlineStr">
+        <is>
+          <t>Amount (USD)</t>
         </is>
       </c>
     </row>
@@ -1989,18 +1999,19 @@
       <c r="A22" s="114" t="n"/>
       <c r="B22" s="114" t="n"/>
       <c r="C22" s="114" t="n"/>
-      <c r="D22" s="112" t="inlineStr">
+      <c r="D22" s="114" t="n"/>
+      <c r="E22" s="112" t="inlineStr">
         <is>
           <t>PCS</t>
         </is>
       </c>
-      <c r="E22" s="112" t="inlineStr">
+      <c r="F22" s="112" t="inlineStr">
         <is>
           <t>SF</t>
         </is>
       </c>
-      <c r="F22" s="114" t="n"/>
-      <c r="G22" s="18" t="n"/>
+      <c r="G22" s="114" t="n"/>
+      <c r="H22" s="114" t="n"/>
       <c r="L22" s="49" t="n"/>
       <c r="M22" s="50" t="n"/>
       <c r="N22" s="51" t="n"/>
@@ -2223,11 +2234,11 @@
     <row r="51" ht="17.25" customHeight="1"/>
     <row r="63" ht="15" customHeight="1"/>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="18">
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="B24:C24"/>
-    <mergeCell ref="F21:F22"/>
     <mergeCell ref="A1:G1"/>
+    <mergeCell ref="E21:F21"/>
     <mergeCell ref="A27:G27"/>
     <mergeCell ref="A23:C23"/>
     <mergeCell ref="A3:G3"/>
@@ -2236,10 +2247,12 @@
     <mergeCell ref="A4:G4"/>
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="A26:G26"/>
+    <mergeCell ref="D21:D22"/>
     <mergeCell ref="A2:G2"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="A5:G5"/>
-    <mergeCell ref="D21:E21"/>
   </mergeCells>
   <conditionalFormatting sqref="J23:J35">
     <cfRule type="duplicateValues" priority="1" stopIfTrue="1"/>

--- a/result_ERROR.xlsx
+++ b/result_ERROR.xlsx
@@ -21,13 +21,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="[$-409]dd\-mmm\-yy;@"/>
     <numFmt numFmtId="165" formatCode="#,##0.00;[Red]#,##0.00"/>
     <numFmt numFmtId="166" formatCode="###0;###0"/>
     <numFmt numFmtId="167" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="168" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="39">
+  <fonts count="42">
     <font>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -266,8 +267,21 @@
       <b val="1"/>
       <sz val="12"/>
     </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <b val="1"/>
+      <sz val="16"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="14"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
@@ -286,8 +300,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D3D3D3"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -335,6 +354,25 @@
       <bottom style="thin">
         <color rgb="00000000"/>
       </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="00000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="00000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="00000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="00000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="00000000"/>
+      </right>
     </border>
     <border>
       <left style="thin">
@@ -402,6 +440,7 @@
       </bottom>
       <diagonal/>
     </border>
+    <border/>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -411,7 +450,7 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
@@ -700,19 +739,86 @@
     <xf numFmtId="4" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="36" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="168" fontId="36" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="4" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="41" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="41" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="4" fontId="38" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="35" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="39" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="39" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="38" fillId="4" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="39" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="39" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="38" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="38" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="38" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="38" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="38" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1361,7 +1467,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
@@ -1400,10 +1506,8 @@
           <t>DATE:</t>
         </is>
       </c>
-      <c r="E3" s="108" t="inlineStr">
-        <is>
-          <t>JFTIME</t>
-        </is>
+      <c r="E3" s="108" t="n">
+        <v>45819</v>
       </c>
     </row>
     <row r="4" ht="30" customFormat="1" customHeight="1" s="35">
@@ -1417,7 +1521,7 @@
       </c>
       <c r="E4" s="57" t="inlineStr">
         <is>
-          <t>JFINV</t>
+          <t>JF25030</t>
         </is>
       </c>
     </row>
@@ -1512,173 +1616,547 @@
         </is>
       </c>
     </row>
-    <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="44" t="n"/>
-      <c r="B15" s="44" t="n"/>
-      <c r="C15" s="44" t="n"/>
-      <c r="D15" s="44" t="n"/>
-      <c r="E15" s="44" t="n"/>
-    </row>
-    <row r="16" ht="27.95" customHeight="1">
-      <c r="A16" s="94" t="n"/>
-      <c r="C16" s="109" t="n"/>
-      <c r="D16" s="109" t="n"/>
-      <c r="E16" s="109" t="n"/>
-    </row>
-    <row r="17" ht="29.1" customFormat="1" customHeight="1" s="36">
-      <c r="A17" s="45" t="inlineStr">
+    <row r="15" ht="36" customHeight="1">
+      <c r="A15" s="109" t="inlineStr">
+        <is>
+          <t>No.</t>
+        </is>
+      </c>
+      <c r="B15" s="109" t="inlineStr">
+        <is>
+          <t>ITEM Nº</t>
+        </is>
+      </c>
+      <c r="C15" s="109" t="inlineStr">
+        <is>
+          <t>Quantity</t>
+        </is>
+      </c>
+      <c r="D15" s="109" t="inlineStr">
+        <is>
+          <t>Unit Price(USD)</t>
+        </is>
+      </c>
+      <c r="E15" s="109" t="inlineStr">
+        <is>
+          <t>Total value(USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" ht="30" customHeight="1">
+      <c r="A16" s="110" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" s="110" t="inlineStr">
+        <is>
+          <t>01.10.U756033</t>
+        </is>
+      </c>
+      <c r="C16" s="111" t="n">
+        <v>7438.8</v>
+      </c>
+      <c r="D16" s="111" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="E16" s="111">
+        <f>D16 * C16</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" ht="30" customFormat="1" customHeight="1" s="36">
+      <c r="A17" s="110" t="n">
+        <v>2</v>
+      </c>
+      <c r="B17" s="110" t="inlineStr">
+        <is>
+          <t>01.10.U756033</t>
+        </is>
+      </c>
+      <c r="C17" s="111" t="n">
+        <v>242.7</v>
+      </c>
+      <c r="D17" s="111" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="E17" s="111">
+        <f>D17 * C17</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" ht="30" customFormat="1" customHeight="1" s="36">
+      <c r="A18" s="110" t="n">
+        <v>3</v>
+      </c>
+      <c r="B18" s="110" t="inlineStr">
+        <is>
+          <t>01.10.W653191</t>
+        </is>
+      </c>
+      <c r="C18" s="111" t="n">
+        <v>5748.5</v>
+      </c>
+      <c r="D18" s="111" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="E18" s="111">
+        <f>D18 * C18</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" ht="30" customFormat="1" customHeight="1" s="36">
+      <c r="A19" s="110" t="n">
+        <v>4</v>
+      </c>
+      <c r="B19" s="110" t="inlineStr">
+        <is>
+          <t>01.10.W783049</t>
+        </is>
+      </c>
+      <c r="C19" s="111" t="n">
+        <v>9263.5</v>
+      </c>
+      <c r="D19" s="111" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="E19" s="111">
+        <f>D19 * C19</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" ht="30" customFormat="1" customHeight="1" s="36">
+      <c r="A20" s="110" t="n">
+        <v>5</v>
+      </c>
+      <c r="B20" s="110" t="inlineStr">
+        <is>
+          <t>01.10.W783049</t>
+        </is>
+      </c>
+      <c r="C20" s="111" t="n">
+        <v>112.5</v>
+      </c>
+      <c r="D20" s="111" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="E20" s="111">
+        <f>D20 * C20</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" ht="30" customFormat="1" customHeight="1" s="36">
+      <c r="A21" s="110" t="n">
+        <v>6</v>
+      </c>
+      <c r="B21" s="110" t="inlineStr">
+        <is>
+          <t>01.10.W783049</t>
+        </is>
+      </c>
+      <c r="C21" s="111" t="n">
+        <v>10077.9</v>
+      </c>
+      <c r="D21" s="111" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="E21" s="111">
+        <f>D21 * C21</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" ht="30" customFormat="1" customHeight="1" s="36">
+      <c r="A22" s="110" t="n">
+        <v>7</v>
+      </c>
+      <c r="B22" s="110" t="inlineStr">
+        <is>
+          <t>01.10.U741023</t>
+        </is>
+      </c>
+      <c r="C22" s="111" t="n">
+        <v>18953.2</v>
+      </c>
+      <c r="D22" s="111" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="E22" s="111">
+        <f>D22 * C22</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" ht="30" customFormat="1" customHeight="1" s="36">
+      <c r="A23" s="110" t="n">
+        <v>8</v>
+      </c>
+      <c r="B23" s="110" t="inlineStr">
+        <is>
+          <t>01.10.U741023</t>
+        </is>
+      </c>
+      <c r="C23" s="111" t="n">
+        <v>56.5</v>
+      </c>
+      <c r="D23" s="111" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="E23" s="111">
+        <f>D23 * C23</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" ht="30" customFormat="1" customHeight="1" s="36">
+      <c r="A24" s="110" t="n">
+        <v>9</v>
+      </c>
+      <c r="B24" s="110" t="inlineStr">
+        <is>
+          <t>01.10.U741023</t>
+        </is>
+      </c>
+      <c r="C24" s="111" t="n">
+        <v>487.6</v>
+      </c>
+      <c r="D24" s="111" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="E24" s="111">
+        <f>D24 * C24</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" ht="30" customFormat="1" customHeight="1" s="36">
+      <c r="A25" s="110" t="n">
+        <v>10</v>
+      </c>
+      <c r="B25" s="110" t="inlineStr">
+        <is>
+          <t>01.10.U741023</t>
+        </is>
+      </c>
+      <c r="C25" s="111" t="n">
+        <v>9892.700000000001</v>
+      </c>
+      <c r="D25" s="111" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="E25" s="111">
+        <f>D25 * C25</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" ht="30" customFormat="1" customHeight="1" s="37">
+      <c r="A26" s="110" t="n">
+        <v>11</v>
+      </c>
+      <c r="B26" s="110" t="inlineStr">
+        <is>
+          <t>01.10.U722233</t>
+        </is>
+      </c>
+      <c r="C26" s="111" t="n">
+        <v>18272.6</v>
+      </c>
+      <c r="D26" s="111" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="E26" s="111">
+        <f>D26 * C26</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" ht="30" customFormat="1" customHeight="1" s="37">
+      <c r="A27" s="110" t="n">
+        <v>12</v>
+      </c>
+      <c r="B27" s="110" t="inlineStr">
+        <is>
+          <t>01.10.U722233</t>
+        </is>
+      </c>
+      <c r="C27" s="111" t="n">
+        <v>635.8</v>
+      </c>
+      <c r="D27" s="111" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="E27" s="111">
+        <f>D27 * C27</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" ht="30" customHeight="1">
+      <c r="A28" s="110" t="n">
+        <v>13</v>
+      </c>
+      <c r="B28" s="110" t="inlineStr">
+        <is>
+          <t>01.10.U722233</t>
+        </is>
+      </c>
+      <c r="C28" s="111" t="n">
+        <v>247</v>
+      </c>
+      <c r="D28" s="111" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="E28" s="111">
+        <f>D28 * C28</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" ht="30" customHeight="1">
+      <c r="A29" s="110" t="n">
+        <v>14</v>
+      </c>
+      <c r="B29" s="110" t="inlineStr">
+        <is>
+          <t>01.10.U528110</t>
+        </is>
+      </c>
+      <c r="C29" s="111" t="n">
+        <v>25569.9</v>
+      </c>
+      <c r="D29" s="111" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="E29" s="111">
+        <f>D29 * C29</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" ht="30" customHeight="1">
+      <c r="A30" s="110" t="n">
+        <v>15</v>
+      </c>
+      <c r="B30" s="110" t="inlineStr">
+        <is>
+          <t>01.10.U528110</t>
+        </is>
+      </c>
+      <c r="C30" s="111" t="n">
+        <v>1162.8</v>
+      </c>
+      <c r="D30" s="111" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="E30" s="111">
+        <f>D30 * C30</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" ht="30" customHeight="1">
+      <c r="A31" s="110" t="n">
+        <v>16</v>
+      </c>
+      <c r="B31" s="110" t="inlineStr">
+        <is>
+          <t>01.10.U528103</t>
+        </is>
+      </c>
+      <c r="C31" s="111" t="n">
+        <v>20551.4</v>
+      </c>
+      <c r="D31" s="111" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="E31" s="111">
+        <f>D31 * C31</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32" ht="30" customHeight="1">
+      <c r="A32" s="110" t="n">
+        <v>17</v>
+      </c>
+      <c r="B32" s="110" t="inlineStr">
+        <is>
+          <t>01.10.U528103</t>
+        </is>
+      </c>
+      <c r="C32" s="111" t="n">
+        <v>1513.7</v>
+      </c>
+      <c r="D32" s="111" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="E32" s="111">
+        <f>D32 * C32</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33" ht="36" customHeight="1">
+      <c r="A33" s="112" t="inlineStr">
+        <is>
+          <t>TOTAL:</t>
+        </is>
+      </c>
+      <c r="B33" s="113" t="n"/>
+      <c r="C33" s="114">
+        <f>SUM(C16:C32)</f>
+        <v/>
+      </c>
+      <c r="D33" s="112" t="n"/>
+      <c r="E33" s="114">
+        <f>SUM(E16:E32)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="94" t="n"/>
+      <c r="C34" s="115" t="n"/>
+      <c r="D34" s="115" t="n"/>
+      <c r="E34" s="115" t="n"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="45" t="inlineStr">
         <is>
           <t>FCA:</t>
         </is>
       </c>
-      <c r="B17" s="46" t="inlineStr">
+      <c r="B35" s="46" t="inlineStr">
         <is>
           <t>BAVET, SVAY RIENG</t>
         </is>
       </c>
-      <c r="C17" s="41" t="n"/>
-      <c r="D17" s="41" t="n"/>
-      <c r="E17" s="41" t="n"/>
-    </row>
-    <row r="18" ht="29.1" customFormat="1" customHeight="1" s="36">
-      <c r="A18" s="41" t="inlineStr">
+      <c r="C35" s="41" t="n"/>
+      <c r="D35" s="41" t="n"/>
+      <c r="E35" s="41" t="n"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="41" t="inlineStr">
         <is>
           <t>Term of Payment: 100% TT after shipment</t>
         </is>
       </c>
-      <c r="B18" s="41" t="n"/>
-      <c r="C18" s="41" t="n"/>
-      <c r="D18" s="41" t="n"/>
-      <c r="E18" s="41" t="n"/>
-    </row>
-    <row r="19" ht="29.1" customFormat="1" customHeight="1" s="36">
-      <c r="A19" s="41" t="inlineStr">
+      <c r="B36" s="41" t="n"/>
+      <c r="C36" s="41" t="n"/>
+      <c r="D36" s="41" t="n"/>
+      <c r="E36" s="41" t="n"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="41" t="inlineStr">
         <is>
           <t>Transaction method: FCA(USD)</t>
         </is>
       </c>
-      <c r="B19" s="41" t="n"/>
-      <c r="C19" s="41" t="n"/>
-      <c r="D19" s="41" t="n"/>
-      <c r="E19" s="41" t="n"/>
-    </row>
-    <row r="20" ht="29.1" customFormat="1" customHeight="1" s="36">
-      <c r="A20" s="41" t="inlineStr">
+      <c r="B37" s="41" t="n"/>
+      <c r="C37" s="41" t="n"/>
+      <c r="D37" s="41" t="n"/>
+      <c r="E37" s="41" t="n"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="41" t="inlineStr">
         <is>
           <t xml:space="preserve">Beneficiary bank information: </t>
         </is>
       </c>
-      <c r="B20" s="41" t="n"/>
-      <c r="C20" s="41" t="inlineStr">
+      <c r="B38" s="41" t="n"/>
+      <c r="C38" s="41" t="inlineStr">
         <is>
           <t>CALIFOR UPHOLSTERY MATERIALS CO.,LTD.</t>
         </is>
       </c>
-      <c r="D20" s="41" t="n"/>
-      <c r="E20" s="41" t="n"/>
-    </row>
-    <row r="21" ht="45.95" customFormat="1" customHeight="1" s="36">
-      <c r="A21" s="41" t="inlineStr">
+      <c r="D38" s="41" t="n"/>
+      <c r="E38" s="41" t="n"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="41" t="inlineStr">
         <is>
           <t xml:space="preserve">Beneficiary Bank' s Name: </t>
         </is>
       </c>
-      <c r="B21" s="41" t="n"/>
-      <c r="C21" s="91" t="inlineStr">
+      <c r="B39" s="41" t="n"/>
+      <c r="C39" s="91" t="inlineStr">
         <is>
           <t>BANK OF CHINA(HONG KONG)LIMITED PHNOM PENH BRANCH
  /BANK OF CHINA PHNOM PENH BRANCH</t>
         </is>
       </c>
     </row>
-    <row r="22" ht="41.1" customFormat="1" customHeight="1" s="36">
-      <c r="A22" s="41" t="inlineStr">
+    <row r="40">
+      <c r="A40" s="41" t="inlineStr">
         <is>
           <t xml:space="preserve">Bank Address:  </t>
         </is>
       </c>
-      <c r="B22" s="41" t="n"/>
-      <c r="C22" s="91" t="inlineStr">
+      <c r="B40" s="41" t="n"/>
+      <c r="C40" s="91" t="inlineStr">
         <is>
           <t>1st AND 2nd FLOOR,CANADIA TOWER,No.315 ANDDUONG ST.
 PHNOM PEMH,CAMBODIA.</t>
         </is>
       </c>
     </row>
-    <row r="23" ht="29.1" customFormat="1" customHeight="1" s="36">
-      <c r="A23" s="41" t="inlineStr">
+    <row r="41">
+      <c r="A41" s="41" t="inlineStr">
         <is>
           <t>Bank account :</t>
         </is>
       </c>
-      <c r="B23" s="41" t="n"/>
-      <c r="C23" s="92" t="inlineStr">
+      <c r="B41" s="41" t="n"/>
+      <c r="C41" s="92" t="inlineStr">
         <is>
           <t>100001100764430</t>
         </is>
       </c>
     </row>
-    <row r="24" ht="29.1" customFormat="1" customHeight="1" s="36">
-      <c r="A24" s="41" t="inlineStr">
+    <row r="42">
+      <c r="A42" s="41" t="inlineStr">
         <is>
           <t>SWIFT CODE  ：</t>
         </is>
       </c>
-      <c r="B24" s="41" t="n"/>
-      <c r="C24" s="41" t="inlineStr">
+      <c r="B42" s="41" t="n"/>
+      <c r="C42" s="41" t="inlineStr">
         <is>
           <t>BKCHKHPPXXX</t>
         </is>
       </c>
-      <c r="D24" s="41" t="n"/>
-      <c r="E24" s="41" t="n"/>
-    </row>
-    <row r="25" ht="29.1" customFormat="1" customHeight="1" s="36">
-      <c r="A25" s="41" t="n"/>
-      <c r="B25" s="41" t="n"/>
-      <c r="C25" s="41" t="n"/>
-      <c r="D25" s="41" t="n"/>
-      <c r="E25" s="41" t="n"/>
-      <c r="F25" s="41" t="n"/>
-    </row>
-    <row r="26" ht="29.1" customFormat="1" customHeight="1" s="37">
-      <c r="A26" s="37" t="inlineStr">
+      <c r="D42" s="41" t="n"/>
+      <c r="E42" s="41" t="n"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="41" t="n"/>
+      <c r="B43" s="41" t="n"/>
+      <c r="C43" s="41" t="n"/>
+      <c r="D43" s="41" t="n"/>
+      <c r="E43" s="41" t="n"/>
+      <c r="F43" s="41" t="n"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="37" t="inlineStr">
         <is>
           <t>The Buyer:</t>
         </is>
       </c>
-      <c r="D26" s="47" t="inlineStr">
+      <c r="D44" s="47" t="inlineStr">
         <is>
           <t>The Seller:</t>
         </is>
       </c>
     </row>
-    <row r="27" ht="57" customFormat="1" customHeight="1" s="37">
-      <c r="A27" s="73" t="inlineStr">
+    <row r="45">
+      <c r="A45" s="73" t="inlineStr">
         <is>
           <t>JASON FURNITURE VIET NAM COMPANY LIMITED</t>
         </is>
       </c>
-      <c r="B27" s="72" t="n"/>
-      <c r="C27" s="48" t="n"/>
-      <c r="D27" s="73" t="inlineStr">
+      <c r="B45" s="72" t="n"/>
+      <c r="C45" s="48" t="n"/>
+      <c r="D45" s="73" t="inlineStr">
         <is>
           <t>CALIFOR UPHOLSTERY MATERIALS CO.,LTD.</t>
         </is>
       </c>
-      <c r="E27" s="73" t="n"/>
+      <c r="E45" s="73" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="A16:B16"/>
+  <mergeCells count="7">
     <mergeCell ref="A12:D12"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="A33:B33"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="B11:E11"/>
     <mergeCell ref="A13:E13"/>
     <mergeCell ref="A14:E14"/>
-    <mergeCell ref="C21:E21"/>
     <mergeCell ref="B10:E10"/>
   </mergeCells>
   <pageMargins left="0.432638888888889" right="0.314583333333333" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1692,7 +2170,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O44"/>
+  <dimension ref="A1:O62"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" topLeftCell="A6" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
@@ -1747,12 +2225,12 @@
           <t>Tel: +855   975910636</t>
         </is>
       </c>
-      <c r="B5" s="110" t="n"/>
-      <c r="C5" s="110" t="n"/>
-      <c r="D5" s="110" t="n"/>
-      <c r="E5" s="110" t="n"/>
-      <c r="F5" s="110" t="n"/>
-      <c r="G5" s="110" t="n"/>
+      <c r="B5" s="116" t="n"/>
+      <c r="C5" s="116" t="n"/>
+      <c r="D5" s="116" t="n"/>
+      <c r="E5" s="116" t="n"/>
+      <c r="F5" s="116" t="n"/>
+      <c r="G5" s="116" t="n"/>
     </row>
     <row r="6" ht="83.25" customHeight="1">
       <c r="A6" s="100" t="inlineStr">
@@ -1760,12 +2238,12 @@
           <t>INVOICE</t>
         </is>
       </c>
-      <c r="B6" s="111" t="n"/>
-      <c r="C6" s="111" t="n"/>
-      <c r="D6" s="111" t="n"/>
-      <c r="E6" s="111" t="n"/>
-      <c r="F6" s="111" t="n"/>
-      <c r="G6" s="111" t="n"/>
+      <c r="B6" s="117" t="n"/>
+      <c r="C6" s="117" t="n"/>
+      <c r="D6" s="117" t="n"/>
+      <c r="E6" s="117" t="n"/>
+      <c r="F6" s="117" t="n"/>
+      <c r="G6" s="117" t="n"/>
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="4" t="n"/>
@@ -1780,7 +2258,7 @@
       </c>
       <c r="G7" s="58" t="inlineStr">
         <is>
-          <t>JFREF</t>
+          <t>CLF2025-171</t>
         </is>
       </c>
     </row>
@@ -1803,7 +2281,7 @@
       </c>
       <c r="G8" s="86" t="inlineStr">
         <is>
-          <t>JFINV</t>
+          <t>JF25030</t>
         </is>
       </c>
     </row>
@@ -1820,10 +2298,8 @@
           <t>Date:</t>
         </is>
       </c>
-      <c r="G9" s="88" t="inlineStr">
-        <is>
-          <t>JFTIME</t>
-        </is>
+      <c r="G9" s="118" t="n">
+        <v>45819</v>
       </c>
     </row>
     <row r="10" ht="22.5" customHeight="1">
@@ -1957,301 +2433,721 @@
       <c r="A20" s="20" t="n"/>
       <c r="B20" s="20" t="n"/>
     </row>
-    <row r="21" ht="27.75" customHeight="1">
-      <c r="A21" s="112" t="inlineStr">
-        <is>
-          <t>NO.</t>
-        </is>
-      </c>
-      <c r="B21" s="112" t="inlineStr">
+    <row r="21" ht="35" customHeight="1">
+      <c r="A21" s="119" t="inlineStr">
+        <is>
+          <t>Mark &amp; Nº</t>
+        </is>
+      </c>
+      <c r="B21" s="119" t="inlineStr">
         <is>
           <t>P.O. Nº</t>
         </is>
       </c>
-      <c r="C21" s="112" t="inlineStr">
+      <c r="C21" s="119" t="inlineStr">
         <is>
           <t>ITEM Nº</t>
         </is>
       </c>
-      <c r="D21" s="112" t="inlineStr">
+      <c r="D21" s="119" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="E21" s="112" t="inlineStr">
+      <c r="E21" s="119" t="inlineStr">
         <is>
           <t>Quantity</t>
         </is>
       </c>
-      <c r="F21" s="113" t="n"/>
-      <c r="G21" s="112" t="inlineStr">
+      <c r="F21" s="119" t="inlineStr">
         <is>
           <t>Unit price (USD)</t>
         </is>
       </c>
-      <c r="H21" s="112" t="inlineStr">
+      <c r="G21" s="119" t="inlineStr">
         <is>
           <t>Amount (USD)</t>
         </is>
       </c>
     </row>
-    <row r="22" ht="27.75" customHeight="1">
-      <c r="A22" s="114" t="n"/>
-      <c r="B22" s="114" t="n"/>
-      <c r="C22" s="114" t="n"/>
-      <c r="D22" s="114" t="n"/>
-      <c r="E22" s="112" t="inlineStr">
-        <is>
-          <t>PCS</t>
-        </is>
-      </c>
-      <c r="F22" s="112" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
-      </c>
-      <c r="G22" s="114" t="n"/>
-      <c r="H22" s="114" t="n"/>
-      <c r="L22" s="49" t="n"/>
-      <c r="M22" s="50" t="n"/>
-      <c r="N22" s="51" t="n"/>
-      <c r="O22" s="51" t="n"/>
-    </row>
-    <row r="23" ht="42" customHeight="1">
-      <c r="A23" s="101" t="inlineStr">
+    <row r="22" ht="35" customHeight="1">
+      <c r="A22" s="120" t="inlineStr">
+        <is>
+          <t>VENDOR#:</t>
+        </is>
+      </c>
+      <c r="B22" s="121" t="inlineStr">
+        <is>
+          <t>9000619872</t>
+        </is>
+      </c>
+      <c r="C22" s="121" t="inlineStr">
+        <is>
+          <t>01.10.U756033</t>
+        </is>
+      </c>
+      <c r="D22" s="122" t="inlineStr">
+        <is>
+          <t>LEATHER</t>
+        </is>
+      </c>
+      <c r="E22" s="123" t="n">
+        <v>7438.8</v>
+      </c>
+      <c r="F22" s="123" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="G22" s="123">
+        <f>F22 * E22</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" ht="35" customHeight="1">
+      <c r="A23" s="124" t="inlineStr">
+        <is>
+          <t>Des: LEATHER</t>
+        </is>
+      </c>
+      <c r="B23" s="121" t="inlineStr">
+        <is>
+          <t>9000619872</t>
+        </is>
+      </c>
+      <c r="C23" s="121" t="inlineStr">
+        <is>
+          <t>01.10.U756033</t>
+        </is>
+      </c>
+      <c r="D23" s="125" t="n"/>
+      <c r="E23" s="123" t="n">
+        <v>242.7</v>
+      </c>
+      <c r="F23" s="123" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="G23" s="123">
+        <f>F23 * E23</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" ht="35" customHeight="1">
+      <c r="A24" s="124" t="inlineStr">
+        <is>
+          <t>MADE IN CAMBODIA</t>
+        </is>
+      </c>
+      <c r="B24" s="121" t="inlineStr">
+        <is>
+          <t>9000691966</t>
+        </is>
+      </c>
+      <c r="C24" s="121" t="inlineStr">
+        <is>
+          <t>01.10.W653191</t>
+        </is>
+      </c>
+      <c r="D24" s="125" t="n"/>
+      <c r="E24" s="123" t="n">
+        <v>5748.5</v>
+      </c>
+      <c r="F24" s="123" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="G24" s="123">
+        <f>F24 * E24</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" ht="35" customHeight="1">
+      <c r="A25" s="124" t="n"/>
+      <c r="B25" s="121" t="inlineStr">
+        <is>
+          <t>9000606101</t>
+        </is>
+      </c>
+      <c r="C25" s="121" t="inlineStr">
+        <is>
+          <t>01.10.W783049</t>
+        </is>
+      </c>
+      <c r="D25" s="125" t="n"/>
+      <c r="E25" s="123" t="n">
+        <v>9263.5</v>
+      </c>
+      <c r="F25" s="123" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="G25" s="123">
+        <f>F25 * E25</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" ht="35" customHeight="1">
+      <c r="A26" s="124" t="n"/>
+      <c r="B26" s="121" t="inlineStr">
+        <is>
+          <t>9000606101</t>
+        </is>
+      </c>
+      <c r="C26" s="121" t="inlineStr">
+        <is>
+          <t>01.10.W783049</t>
+        </is>
+      </c>
+      <c r="D26" s="125" t="n"/>
+      <c r="E26" s="123" t="n">
+        <v>112.5</v>
+      </c>
+      <c r="F26" s="123" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="G26" s="123">
+        <f>F26 * E26</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" ht="35" customFormat="1" customHeight="1" s="1">
+      <c r="A27" s="124" t="n"/>
+      <c r="B27" s="121" t="inlineStr">
+        <is>
+          <t>9000678466</t>
+        </is>
+      </c>
+      <c r="C27" s="121" t="inlineStr">
+        <is>
+          <t>01.10.W783049</t>
+        </is>
+      </c>
+      <c r="D27" s="125" t="n"/>
+      <c r="E27" s="123" t="n">
+        <v>10077.9</v>
+      </c>
+      <c r="F27" s="123" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="G27" s="123">
+        <f>F27 * E27</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" ht="35" customHeight="1">
+      <c r="A28" s="124" t="n"/>
+      <c r="B28" s="121" t="inlineStr">
+        <is>
+          <t>9000707953</t>
+        </is>
+      </c>
+      <c r="C28" s="121" t="inlineStr">
+        <is>
+          <t>01.10.U741023</t>
+        </is>
+      </c>
+      <c r="D28" s="125" t="n"/>
+      <c r="E28" s="123" t="n">
+        <v>18953.2</v>
+      </c>
+      <c r="F28" s="123" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="G28" s="123">
+        <f>F28 * E28</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" ht="35" customHeight="1">
+      <c r="A29" s="124" t="n"/>
+      <c r="B29" s="121" t="inlineStr">
+        <is>
+          <t>9000707953</t>
+        </is>
+      </c>
+      <c r="C29" s="121" t="inlineStr">
+        <is>
+          <t>01.10.U741023</t>
+        </is>
+      </c>
+      <c r="D29" s="125" t="n"/>
+      <c r="E29" s="123" t="n">
+        <v>56.5</v>
+      </c>
+      <c r="F29" s="123" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="G29" s="123">
+        <f>F29 * E29</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" ht="35" customHeight="1">
+      <c r="A30" s="124" t="n"/>
+      <c r="B30" s="121" t="inlineStr">
+        <is>
+          <t>9000707953</t>
+        </is>
+      </c>
+      <c r="C30" s="121" t="inlineStr">
+        <is>
+          <t>01.10.U741023</t>
+        </is>
+      </c>
+      <c r="D30" s="125" t="n"/>
+      <c r="E30" s="123" t="n">
+        <v>487.6</v>
+      </c>
+      <c r="F30" s="123" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="G30" s="123">
+        <f>F30 * E30</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" ht="35" customHeight="1">
+      <c r="A31" s="124" t="n"/>
+      <c r="B31" s="121" t="inlineStr">
+        <is>
+          <t>9000719487</t>
+        </is>
+      </c>
+      <c r="C31" s="121" t="inlineStr">
+        <is>
+          <t>01.10.U741023</t>
+        </is>
+      </c>
+      <c r="D31" s="125" t="n"/>
+      <c r="E31" s="123" t="n">
+        <v>9892.700000000001</v>
+      </c>
+      <c r="F31" s="123" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="G31" s="123">
+        <f>F31 * E31</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32" ht="35" customHeight="1">
+      <c r="A32" s="124" t="n"/>
+      <c r="B32" s="121" t="inlineStr">
+        <is>
+          <t>9000719487</t>
+        </is>
+      </c>
+      <c r="C32" s="121" t="inlineStr">
+        <is>
+          <t>01.10.U722233</t>
+        </is>
+      </c>
+      <c r="D32" s="125" t="n"/>
+      <c r="E32" s="123" t="n">
+        <v>18272.6</v>
+      </c>
+      <c r="F32" s="123" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="G32" s="123">
+        <f>F32 * E32</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33" ht="35" customHeight="1">
+      <c r="A33" s="124" t="n"/>
+      <c r="B33" s="121" t="inlineStr">
+        <is>
+          <t>9000719487</t>
+        </is>
+      </c>
+      <c r="C33" s="121" t="inlineStr">
+        <is>
+          <t>01.10.U722233</t>
+        </is>
+      </c>
+      <c r="D33" s="125" t="n"/>
+      <c r="E33" s="123" t="n">
+        <v>635.8</v>
+      </c>
+      <c r="F33" s="123" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="G33" s="123">
+        <f>F33 * E33</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" ht="35" customHeight="1">
+      <c r="A34" s="124" t="n"/>
+      <c r="B34" s="121" t="inlineStr">
+        <is>
+          <t>9000719487</t>
+        </is>
+      </c>
+      <c r="C34" s="121" t="inlineStr">
+        <is>
+          <t>01.10.U722233</t>
+        </is>
+      </c>
+      <c r="D34" s="125" t="n"/>
+      <c r="E34" s="123" t="n">
+        <v>247</v>
+      </c>
+      <c r="F34" s="123" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="G34" s="123">
+        <f>F34 * E34</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35" ht="35" customHeight="1">
+      <c r="A35" s="124" t="n"/>
+      <c r="B35" s="121" t="inlineStr">
+        <is>
+          <t>9000707052</t>
+        </is>
+      </c>
+      <c r="C35" s="121" t="inlineStr">
+        <is>
+          <t>01.10.U528110</t>
+        </is>
+      </c>
+      <c r="D35" s="125" t="n"/>
+      <c r="E35" s="123" t="n">
+        <v>25569.9</v>
+      </c>
+      <c r="F35" s="123" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="G35" s="123">
+        <f>F35 * E35</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36" ht="35" customHeight="1">
+      <c r="A36" s="124" t="n"/>
+      <c r="B36" s="121" t="inlineStr">
+        <is>
+          <t>9000707052</t>
+        </is>
+      </c>
+      <c r="C36" s="121" t="inlineStr">
+        <is>
+          <t>01.10.U528110</t>
+        </is>
+      </c>
+      <c r="D36" s="125" t="n"/>
+      <c r="E36" s="123" t="n">
+        <v>1162.8</v>
+      </c>
+      <c r="F36" s="123" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="G36" s="123">
+        <f>F36 * E36</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37" ht="35" customHeight="1">
+      <c r="A37" s="124" t="n"/>
+      <c r="B37" s="121" t="inlineStr">
+        <is>
+          <t>9000707052</t>
+        </is>
+      </c>
+      <c r="C37" s="121" t="inlineStr">
+        <is>
+          <t>01.10.U528103</t>
+        </is>
+      </c>
+      <c r="D37" s="125" t="n"/>
+      <c r="E37" s="123" t="n">
+        <v>20551.4</v>
+      </c>
+      <c r="F37" s="123" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="G37" s="123">
+        <f>F37 * E37</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38" ht="35" customHeight="1">
+      <c r="A38" s="124" t="n"/>
+      <c r="B38" s="121" t="inlineStr">
+        <is>
+          <t>9000707052</t>
+        </is>
+      </c>
+      <c r="C38" s="121" t="inlineStr">
+        <is>
+          <t>01.10.U528103</t>
+        </is>
+      </c>
+      <c r="D38" s="126" t="n"/>
+      <c r="E38" s="123" t="n">
+        <v>1513.7</v>
+      </c>
+      <c r="F38" s="123" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="G38" s="123">
+        <f>F38 * E38</f>
+        <v/>
+      </c>
+    </row>
+    <row r="39" ht="35" customHeight="1">
+      <c r="A39" s="112" t="n"/>
+      <c r="B39" s="112" t="inlineStr">
+        <is>
+          <t>TOTAL:</t>
+        </is>
+      </c>
+      <c r="C39" s="112" t="n"/>
+      <c r="D39" s="112" t="inlineStr">
+        <is>
+          <t>16 PALLETS</t>
+        </is>
+      </c>
+      <c r="E39" s="112">
+        <f>SUM(E22:E38)</f>
+        <v/>
+      </c>
+      <c r="F39" s="112" t="n"/>
+      <c r="G39" s="112">
+        <f>SUM(G22:G38)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40" ht="21" customHeight="1">
+      <c r="A40" s="21" t="n"/>
+      <c r="B40" s="21" t="n"/>
+      <c r="C40" s="22" t="n"/>
+      <c r="D40" s="22" t="n"/>
+      <c r="E40" s="22" t="n"/>
+      <c r="F40" s="22" t="n"/>
+      <c r="G40" s="18" t="n"/>
+      <c r="L40" s="49" t="n"/>
+      <c r="M40" s="50" t="n"/>
+      <c r="N40" s="51" t="n"/>
+      <c r="O40" s="51" t="n"/>
+    </row>
+    <row r="41" ht="21" customHeight="1">
+      <c r="A41" s="101" t="inlineStr">
         <is>
           <t>Country of Original Cambodia</t>
         </is>
       </c>
-      <c r="D23" s="101" t="n"/>
-      <c r="E23" s="4" t="n"/>
-      <c r="F23" s="33" t="n"/>
-      <c r="G23" s="96" t="n"/>
-      <c r="L23" s="49" t="n"/>
-      <c r="M23" s="50" t="n"/>
-      <c r="N23" s="51" t="n"/>
-      <c r="O23" s="51" t="n"/>
-    </row>
-    <row r="24" ht="61.5" customHeight="1">
-      <c r="A24" s="28" t="inlineStr">
+      <c r="D41" s="101" t="n"/>
+      <c r="E41" s="4" t="n"/>
+      <c r="F41" s="33" t="n"/>
+      <c r="G41" s="96" t="n"/>
+      <c r="L41" s="49" t="n"/>
+      <c r="M41" s="50" t="n"/>
+      <c r="N41" s="51" t="n"/>
+      <c r="O41" s="51" t="n"/>
+    </row>
+    <row r="42" ht="21" customHeight="1">
+      <c r="A42" s="28" t="inlineStr">
         <is>
           <t>Manufacture:</t>
         </is>
       </c>
-      <c r="B24" s="102" t="inlineStr">
+      <c r="B42" s="102" t="inlineStr">
         <is>
           <t>CALIFOR UPHOLSTERY MATERIALS CO., LTD.
 XIN BAVET SEZ, Road No. 316A, Trapeang Bon and Prey Kokir Villages, Prey Kokir Commune, Chantrea District,Svay Rieng Province, Kingdom of Cambodia, Tel: +855   975910636</t>
         </is>
       </c>
-      <c r="D24" s="102" t="n"/>
-      <c r="E24" s="102" t="n"/>
-      <c r="F24" s="4" t="n"/>
-      <c r="G24" s="96" t="n"/>
-      <c r="L24" s="49" t="n"/>
-      <c r="M24" s="50" t="n"/>
-      <c r="N24" s="51" t="n"/>
-      <c r="O24" s="51" t="n"/>
-    </row>
-    <row r="25" ht="42" customHeight="1">
-      <c r="A25" s="103" t="inlineStr">
+      <c r="D42" s="102" t="n"/>
+      <c r="E42" s="102" t="n"/>
+      <c r="F42" s="4" t="n"/>
+      <c r="G42" s="96" t="n"/>
+      <c r="L42" s="49" t="n"/>
+      <c r="M42" s="50" t="n"/>
+      <c r="N42" s="51" t="n"/>
+      <c r="O42" s="51" t="n"/>
+    </row>
+    <row r="43" ht="21" customHeight="1">
+      <c r="A43" s="103" t="inlineStr">
         <is>
           <t>BENEFICIARY BANK：BANK OF CHINA(HONG KONG)LIMITED PHNOM PENH BRANCH
                                                   /BANK OF CHINA PHNOM PENH BRANCH</t>
         </is>
       </c>
-      <c r="D25" s="103" t="n"/>
-      <c r="E25" s="103" t="n"/>
-      <c r="F25" s="103" t="n"/>
-      <c r="G25" s="96" t="n"/>
-      <c r="L25" s="49" t="n"/>
-      <c r="M25" s="50" t="n"/>
-      <c r="N25" s="51" t="n"/>
-      <c r="O25" s="51" t="n"/>
-    </row>
-    <row r="26" ht="24.75" customHeight="1">
-      <c r="A26" s="99" t="inlineStr">
+      <c r="D43" s="103" t="n"/>
+      <c r="E43" s="103" t="n"/>
+      <c r="F43" s="103" t="n"/>
+      <c r="G43" s="96" t="n"/>
+      <c r="L43" s="49" t="n"/>
+      <c r="M43" s="50" t="n"/>
+      <c r="N43" s="51" t="n"/>
+      <c r="O43" s="51" t="n"/>
+    </row>
+    <row r="44" ht="21" customHeight="1">
+      <c r="A44" s="99" t="inlineStr">
         <is>
           <t>A/C NO:100001100764430</t>
         </is>
       </c>
-      <c r="L26" s="49" t="n"/>
-      <c r="M26" s="50" t="n"/>
-      <c r="N26" s="51" t="n"/>
-      <c r="O26" s="51" t="n"/>
-    </row>
-    <row r="27" ht="27" customFormat="1" customHeight="1" s="1">
-      <c r="A27" s="99" t="inlineStr">
+      <c r="L44" s="49" t="n"/>
+      <c r="M44" s="50" t="n"/>
+      <c r="N44" s="51" t="n"/>
+      <c r="O44" s="51" t="n"/>
+    </row>
+    <row r="45" ht="25.5" customHeight="1">
+      <c r="A45" s="99" t="inlineStr">
         <is>
           <t>SWIFT CODE  ：BKCHKHPPXXX</t>
         </is>
       </c>
-      <c r="L27" s="49" t="n"/>
-      <c r="M27" s="50" t="n"/>
-      <c r="N27" s="51" t="n"/>
-      <c r="O27" s="51" t="n"/>
-    </row>
-    <row r="28" ht="45" customHeight="1">
-      <c r="E28" s="81" t="inlineStr">
+      <c r="L45" s="49" t="n"/>
+      <c r="M45" s="50" t="n"/>
+      <c r="N45" s="51" t="n"/>
+      <c r="O45" s="51" t="n"/>
+    </row>
+    <row r="46" ht="21" customHeight="1">
+      <c r="E46" s="81" t="inlineStr">
         <is>
           <t>CALIFOR UPHOLSTERY MATERIALS CO., LTD.</t>
         </is>
       </c>
-      <c r="F28" s="81" t="n"/>
-      <c r="G28" s="81" t="n"/>
-      <c r="H28" s="81" t="n"/>
-      <c r="L28" s="49" t="n"/>
-      <c r="M28" s="50" t="n"/>
-      <c r="N28" s="51" t="n"/>
-      <c r="O28" s="51" t="n"/>
-    </row>
-    <row r="29" ht="24" customHeight="1">
-      <c r="D29" s="78" t="n"/>
-      <c r="E29" s="76" t="n"/>
-      <c r="F29" s="79" t="inlineStr">
+      <c r="F46" s="81" t="n"/>
+      <c r="G46" s="81" t="n"/>
+      <c r="H46" s="81" t="n"/>
+      <c r="L46" s="49" t="n"/>
+      <c r="M46" s="50" t="n"/>
+      <c r="N46" s="51" t="n"/>
+      <c r="O46" s="51" t="n"/>
+    </row>
+    <row r="47" ht="21" customHeight="1">
+      <c r="D47" s="78" t="n"/>
+      <c r="E47" s="76" t="n"/>
+      <c r="F47" s="79" t="inlineStr">
         <is>
           <t>Sign &amp; Stamp</t>
         </is>
       </c>
-      <c r="G29" s="80" t="n"/>
-      <c r="L29" s="49" t="n"/>
-      <c r="M29" s="50" t="n"/>
-      <c r="N29" s="51" t="n"/>
-      <c r="O29" s="51" t="n"/>
-    </row>
-    <row r="30" ht="69.75" customHeight="1">
-      <c r="D30" s="78" t="n"/>
-      <c r="E30" s="76" t="n"/>
-      <c r="F30" s="76" t="n"/>
-      <c r="G30" s="80" t="n"/>
-      <c r="L30" s="49" t="n"/>
-      <c r="M30" s="50" t="n"/>
-      <c r="N30" s="51" t="n"/>
-      <c r="O30" s="51" t="n"/>
-    </row>
-    <row r="31" ht="42" customHeight="1">
-      <c r="D31" s="78" t="n"/>
-      <c r="E31" s="76" t="n"/>
-      <c r="F31" s="76" t="n"/>
-      <c r="G31" s="80" t="n"/>
-      <c r="L31" s="49" t="n"/>
-      <c r="M31" s="50" t="n"/>
-      <c r="N31" s="51" t="n"/>
-      <c r="O31" s="51" t="n"/>
-    </row>
-    <row r="32" ht="53.1" customHeight="1">
-      <c r="D32" s="78" t="n"/>
-      <c r="E32" s="76" t="n"/>
-      <c r="F32" s="77" t="inlineStr">
+      <c r="G47" s="80" t="n"/>
+      <c r="L47" s="49" t="n"/>
+      <c r="M47" s="50" t="n"/>
+      <c r="N47" s="51" t="n"/>
+      <c r="O47" s="51" t="n"/>
+    </row>
+    <row r="48" ht="21" customHeight="1">
+      <c r="D48" s="78" t="n"/>
+      <c r="E48" s="76" t="n"/>
+      <c r="F48" s="76" t="n"/>
+      <c r="G48" s="80" t="n"/>
+      <c r="L48" s="49" t="n"/>
+      <c r="M48" s="50" t="n"/>
+      <c r="N48" s="51" t="n"/>
+      <c r="O48" s="51" t="n"/>
+    </row>
+    <row r="49" ht="21" customHeight="1">
+      <c r="D49" s="78" t="n"/>
+      <c r="E49" s="76" t="n"/>
+      <c r="F49" s="76" t="n"/>
+      <c r="G49" s="80" t="n"/>
+      <c r="L49" s="49" t="n"/>
+      <c r="M49" s="50" t="n"/>
+      <c r="N49" s="51" t="n"/>
+      <c r="O49" s="51" t="n"/>
+    </row>
+    <row r="50" ht="21" customHeight="1">
+      <c r="D50" s="78" t="n"/>
+      <c r="E50" s="76" t="n"/>
+      <c r="F50" s="77" t="inlineStr">
         <is>
           <t>ZENG XUELI</t>
         </is>
       </c>
-      <c r="G32" s="77" t="n"/>
-      <c r="L32" s="49" t="n"/>
-      <c r="M32" s="50" t="n"/>
-      <c r="N32" s="51" t="n"/>
-      <c r="O32" s="51" t="n"/>
-    </row>
-    <row r="33" ht="27.75" customHeight="1">
-      <c r="D33" s="74" t="n"/>
-      <c r="E33" s="74" t="n"/>
-      <c r="F33" s="74" t="n"/>
-      <c r="G33" s="75" t="n"/>
-    </row>
-    <row r="34" ht="27.75" customHeight="1">
-      <c r="D34" s="74" t="n"/>
-      <c r="E34" s="74" t="n"/>
-      <c r="F34" s="74" t="n"/>
-      <c r="G34" s="75" t="n"/>
-    </row>
-    <row r="35" ht="27.75" customHeight="1">
-      <c r="D35" s="74" t="n"/>
-      <c r="E35" s="74" t="n"/>
-      <c r="F35" s="74" t="n"/>
-      <c r="G35" s="75" t="n"/>
-    </row>
-    <row r="36" ht="24.75" customHeight="1">
-      <c r="D36" s="74" t="n"/>
-      <c r="E36" s="74" t="n"/>
-      <c r="F36" s="74" t="n"/>
-      <c r="G36" s="75" t="n"/>
-    </row>
-    <row r="37" ht="21" customHeight="1">
-      <c r="D37" s="74" t="n"/>
-      <c r="E37" s="74" t="n"/>
-      <c r="F37" s="74" t="n"/>
-      <c r="G37" s="75" t="n"/>
-    </row>
-    <row r="38" ht="21" customHeight="1">
-      <c r="D38" s="74" t="n"/>
-      <c r="E38" s="74" t="n"/>
-      <c r="F38" s="74" t="n"/>
-      <c r="G38" s="75" t="n"/>
-    </row>
-    <row r="39" ht="21" customHeight="1">
-      <c r="D39" s="74" t="n"/>
-      <c r="E39" s="74" t="n"/>
-      <c r="F39" s="74" t="n"/>
-      <c r="G39" s="75" t="n"/>
-    </row>
-    <row r="40" ht="21" customHeight="1">
-      <c r="D40" s="74" t="n"/>
-      <c r="E40" s="74" t="n"/>
-      <c r="F40" s="74" t="n"/>
-      <c r="G40" s="75" t="n"/>
-    </row>
-    <row r="41" ht="21" customHeight="1">
-      <c r="D41" s="74" t="n"/>
-      <c r="E41" s="74" t="n"/>
-      <c r="F41" s="74" t="n"/>
-      <c r="G41" s="75" t="n"/>
-    </row>
-    <row r="42" ht="21" customHeight="1">
-      <c r="D42" s="74" t="n"/>
-      <c r="E42" s="74" t="n"/>
-      <c r="F42" s="74" t="n"/>
-      <c r="G42" s="75" t="n"/>
-    </row>
-    <row r="43" ht="21" customHeight="1">
-      <c r="D43" s="74" t="n"/>
-      <c r="E43" s="74" t="n"/>
-      <c r="F43" s="74" t="n"/>
-      <c r="G43" s="75" t="n"/>
-    </row>
-    <row r="44" ht="21" customHeight="1">
-      <c r="D44" s="74" t="n"/>
-      <c r="E44" s="74" t="n"/>
-      <c r="F44" s="74" t="n"/>
-      <c r="G44" s="75" t="n"/>
-    </row>
-    <row r="45" ht="25.5" customHeight="1"/>
-    <row r="46" ht="21" customHeight="1"/>
-    <row r="47" ht="21" customHeight="1"/>
-    <row r="48" ht="21" customHeight="1"/>
-    <row r="49" ht="21" customHeight="1"/>
-    <row r="50" ht="21" customHeight="1"/>
-    <row r="51" ht="17.25" customHeight="1"/>
+      <c r="G50" s="77" t="n"/>
+      <c r="L50" s="49" t="n"/>
+      <c r="M50" s="50" t="n"/>
+      <c r="N50" s="51" t="n"/>
+      <c r="O50" s="51" t="n"/>
+    </row>
+    <row r="51" ht="17.25" customHeight="1">
+      <c r="D51" s="74" t="n"/>
+      <c r="E51" s="74" t="n"/>
+      <c r="F51" s="74" t="n"/>
+      <c r="G51" s="75" t="n"/>
+    </row>
+    <row r="52">
+      <c r="D52" s="74" t="n"/>
+      <c r="E52" s="74" t="n"/>
+      <c r="F52" s="74" t="n"/>
+      <c r="G52" s="75" t="n"/>
+    </row>
+    <row r="53">
+      <c r="D53" s="74" t="n"/>
+      <c r="E53" s="74" t="n"/>
+      <c r="F53" s="74" t="n"/>
+      <c r="G53" s="75" t="n"/>
+    </row>
+    <row r="54">
+      <c r="D54" s="74" t="n"/>
+      <c r="E54" s="74" t="n"/>
+      <c r="F54" s="74" t="n"/>
+      <c r="G54" s="75" t="n"/>
+    </row>
+    <row r="55">
+      <c r="D55" s="74" t="n"/>
+      <c r="E55" s="74" t="n"/>
+      <c r="F55" s="74" t="n"/>
+      <c r="G55" s="75" t="n"/>
+    </row>
+    <row r="56">
+      <c r="D56" s="74" t="n"/>
+      <c r="E56" s="74" t="n"/>
+      <c r="F56" s="74" t="n"/>
+      <c r="G56" s="75" t="n"/>
+    </row>
+    <row r="57">
+      <c r="D57" s="74" t="n"/>
+      <c r="E57" s="74" t="n"/>
+      <c r="F57" s="74" t="n"/>
+      <c r="G57" s="75" t="n"/>
+    </row>
+    <row r="58">
+      <c r="D58" s="74" t="n"/>
+      <c r="E58" s="74" t="n"/>
+      <c r="F58" s="74" t="n"/>
+      <c r="G58" s="75" t="n"/>
+    </row>
+    <row r="59">
+      <c r="D59" s="74" t="n"/>
+      <c r="E59" s="74" t="n"/>
+      <c r="F59" s="74" t="n"/>
+      <c r="G59" s="75" t="n"/>
+    </row>
+    <row r="60">
+      <c r="D60" s="74" t="n"/>
+      <c r="E60" s="74" t="n"/>
+      <c r="F60" s="74" t="n"/>
+      <c r="G60" s="75" t="n"/>
+    </row>
+    <row r="61">
+      <c r="D61" s="74" t="n"/>
+      <c r="E61" s="74" t="n"/>
+      <c r="F61" s="74" t="n"/>
+      <c r="G61" s="75" t="n"/>
+    </row>
+    <row r="62">
+      <c r="D62" s="74" t="n"/>
+      <c r="E62" s="74" t="n"/>
+      <c r="F62" s="74" t="n"/>
+      <c r="G62" s="75" t="n"/>
+    </row>
     <row r="63" ht="15" customHeight="1"/>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="B24:C24"/>
+  <mergeCells count="8">
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="A27:G27"/>
-    <mergeCell ref="A23:C23"/>
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="A6:G6"/>
-    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B39"/>
     <mergeCell ref="A4:G4"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="A26:G26"/>
-    <mergeCell ref="D21:D22"/>
     <mergeCell ref="A2:G2"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="D22:D38"/>
     <mergeCell ref="A5:G5"/>
   </mergeCells>
   <conditionalFormatting sqref="J23:J35">
@@ -2269,7 +3165,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I102"/>
+  <dimension ref="A1:I139"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
@@ -2326,14 +3222,14 @@
           <t>Tel: +855   975910636</t>
         </is>
       </c>
-      <c r="B5" s="110" t="n"/>
-      <c r="C5" s="110" t="n"/>
-      <c r="D5" s="110" t="n"/>
-      <c r="E5" s="110" t="n"/>
-      <c r="F5" s="110" t="n"/>
-      <c r="G5" s="110" t="n"/>
-      <c r="H5" s="110" t="n"/>
-      <c r="I5" s="110" t="n"/>
+      <c r="B5" s="116" t="n"/>
+      <c r="C5" s="116" t="n"/>
+      <c r="D5" s="116" t="n"/>
+      <c r="E5" s="116" t="n"/>
+      <c r="F5" s="116" t="n"/>
+      <c r="G5" s="116" t="n"/>
+      <c r="H5" s="116" t="n"/>
+      <c r="I5" s="116" t="n"/>
     </row>
     <row r="6" ht="54" customHeight="1">
       <c r="A6" s="100" t="inlineStr">
@@ -2341,14 +3237,14 @@
           <t>PACKING LIST</t>
         </is>
       </c>
-      <c r="B6" s="111" t="n"/>
-      <c r="C6" s="111" t="n"/>
-      <c r="D6" s="111" t="n"/>
-      <c r="E6" s="111" t="n"/>
-      <c r="F6" s="111" t="n"/>
-      <c r="G6" s="111" t="n"/>
-      <c r="H6" s="111" t="n"/>
-      <c r="I6" s="111" t="n"/>
+      <c r="B6" s="117" t="n"/>
+      <c r="C6" s="117" t="n"/>
+      <c r="D6" s="117" t="n"/>
+      <c r="E6" s="117" t="n"/>
+      <c r="F6" s="117" t="n"/>
+      <c r="G6" s="117" t="n"/>
+      <c r="H6" s="117" t="n"/>
+      <c r="I6" s="117" t="n"/>
     </row>
     <row r="7" ht="18" customHeight="1">
       <c r="A7" s="4" t="n"/>
@@ -2365,7 +3261,7 @@
       </c>
       <c r="I7" s="87" t="inlineStr">
         <is>
-          <t>JFREF</t>
+          <t>CLF2025-171</t>
         </is>
       </c>
     </row>
@@ -2389,7 +3285,7 @@
       </c>
       <c r="I8" s="85" t="inlineStr">
         <is>
-          <t>JFINV</t>
+          <t>JF25030</t>
         </is>
       </c>
     </row>
@@ -2407,10 +3303,8 @@
           <t>Date:</t>
         </is>
       </c>
-      <c r="I9" s="88" t="inlineStr">
-        <is>
-          <t>JFTIME</t>
-        </is>
+      <c r="I9" s="118" t="n">
+        <v>45819</v>
       </c>
     </row>
     <row r="10" ht="22.5" customHeight="1">
@@ -2558,247 +3452,1110 @@
       <c r="A20" s="20" t="n"/>
       <c r="B20" s="65" t="n"/>
     </row>
-    <row r="21" ht="27.75" customHeight="1">
-      <c r="A21" s="20" t="n"/>
-      <c r="B21" s="65" t="n"/>
-    </row>
-    <row r="22" ht="27.75" customHeight="1">
-      <c r="A22" s="13" t="inlineStr">
+    <row r="21" ht="27" customHeight="1">
+      <c r="A21" s="127" t="inlineStr">
+        <is>
+          <t>Mark &amp; Nº</t>
+        </is>
+      </c>
+      <c r="B21" s="127" t="inlineStr">
+        <is>
+          <t>P.O Nº</t>
+        </is>
+      </c>
+      <c r="C21" s="127" t="inlineStr">
+        <is>
+          <t>ITEM Nº</t>
+        </is>
+      </c>
+      <c r="D21" s="127" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="E21" s="127" t="inlineStr">
+        <is>
+          <t>Quantity</t>
+        </is>
+      </c>
+      <c r="F21" s="113" t="n"/>
+      <c r="G21" s="127" t="inlineStr">
+        <is>
+          <t>G.W (kgs)</t>
+        </is>
+      </c>
+      <c r="H21" s="127" t="inlineStr">
+        <is>
+          <t>N.W (kgs)</t>
+        </is>
+      </c>
+      <c r="I21" s="127" t="inlineStr">
+        <is>
+          <t>CBM</t>
+        </is>
+      </c>
+    </row>
+    <row r="22" ht="27" customHeight="1">
+      <c r="A22" s="126" t="n"/>
+      <c r="B22" s="126" t="n"/>
+      <c r="C22" s="126" t="n"/>
+      <c r="D22" s="126" t="n"/>
+      <c r="E22" s="127" t="inlineStr">
+        <is>
+          <t>PCS</t>
+        </is>
+      </c>
+      <c r="F22" s="127" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="G22" s="126" t="n"/>
+      <c r="H22" s="126" t="n"/>
+      <c r="I22" s="126" t="n"/>
+    </row>
+    <row r="23" ht="27" customHeight="1">
+      <c r="A23" s="128" t="inlineStr">
+        <is>
+          <t>VENDOR#:</t>
+        </is>
+      </c>
+      <c r="B23" s="121" t="inlineStr">
+        <is>
+          <t>9000619872</t>
+        </is>
+      </c>
+      <c r="C23" s="121" t="inlineStr">
+        <is>
+          <t>01.10.U756033</t>
+        </is>
+      </c>
+      <c r="D23" s="121" t="inlineStr">
+        <is>
+          <t>LEATHER</t>
+        </is>
+      </c>
+      <c r="E23" s="129" t="n">
+        <v>142</v>
+      </c>
+      <c r="F23" s="123" t="n">
+        <v>7438.8</v>
+      </c>
+      <c r="G23" s="123" t="n">
+        <v>630.3649</v>
+      </c>
+      <c r="H23" s="123" t="n">
+        <v>587.1892</v>
+      </c>
+      <c r="I23" s="130" t="n">
+        <v>1.9757</v>
+      </c>
+    </row>
+    <row r="24" ht="27" customHeight="1">
+      <c r="A24" s="131" t="inlineStr">
+        <is>
+          <t>Des: LEATHER</t>
+        </is>
+      </c>
+      <c r="B24" s="121" t="inlineStr">
+        <is>
+          <t>9000619872</t>
+        </is>
+      </c>
+      <c r="C24" s="121" t="inlineStr">
+        <is>
+          <t>01.10.U756033</t>
+        </is>
+      </c>
+      <c r="D24" s="125" t="n"/>
+      <c r="E24" s="129" t="n">
+        <v>6</v>
+      </c>
+      <c r="F24" s="123" t="n">
+        <v>242.7</v>
+      </c>
+      <c r="G24" s="123" t="n">
+        <v>26.6351</v>
+      </c>
+      <c r="H24" s="123" t="n">
+        <v>24.8108</v>
+      </c>
+      <c r="I24" s="130" t="n">
+        <v>0.0835</v>
+      </c>
+    </row>
+    <row r="25" ht="27" customHeight="1">
+      <c r="A25" s="131" t="inlineStr">
+        <is>
+          <t>Case Qty:</t>
+        </is>
+      </c>
+      <c r="B25" s="121" t="inlineStr">
+        <is>
+          <t>9000691966</t>
+        </is>
+      </c>
+      <c r="C25" s="121" t="inlineStr">
+        <is>
+          <t>01.10.W653191</t>
+        </is>
+      </c>
+      <c r="D25" s="125" t="n"/>
+      <c r="E25" s="129" t="n">
+        <v>105</v>
+      </c>
+      <c r="F25" s="123" t="n">
+        <v>5748.5</v>
+      </c>
+      <c r="G25" s="123" t="n">
+        <v>450</v>
+      </c>
+      <c r="H25" s="123" t="n">
+        <v>405</v>
+      </c>
+      <c r="I25" s="130" t="n">
+        <v>2.178</v>
+      </c>
+    </row>
+    <row r="26" ht="27" customHeight="1">
+      <c r="A26" s="131" t="inlineStr">
+        <is>
+          <t>MADE IN CAMBODIA</t>
+        </is>
+      </c>
+      <c r="B26" s="121" t="inlineStr">
+        <is>
+          <t>9000606101</t>
+        </is>
+      </c>
+      <c r="C26" s="121" t="inlineStr">
+        <is>
+          <t>01.10.W783049</t>
+        </is>
+      </c>
+      <c r="D26" s="125" t="n"/>
+      <c r="E26" s="129" t="n">
+        <v>163</v>
+      </c>
+      <c r="F26" s="123" t="n">
+        <v>9263.5</v>
+      </c>
+      <c r="G26" s="123" t="n">
+        <v>972.1084</v>
+      </c>
+      <c r="H26" s="123" t="n">
+        <v>927.9217</v>
+      </c>
+      <c r="I26" s="130" t="n">
+        <v>2.7219</v>
+      </c>
+    </row>
+    <row r="27" ht="27" customHeight="1">
+      <c r="A27" s="131" t="n"/>
+      <c r="B27" s="121" t="inlineStr">
+        <is>
+          <t>9000606101</t>
+        </is>
+      </c>
+      <c r="C27" s="121" t="inlineStr">
+        <is>
+          <t>01.10.W783049</t>
+        </is>
+      </c>
+      <c r="D27" s="125" t="n"/>
+      <c r="E27" s="129" t="n">
+        <v>3</v>
+      </c>
+      <c r="F27" s="123" t="n">
+        <v>112.5</v>
+      </c>
+      <c r="G27" s="123" t="n">
+        <v>17.8916</v>
+      </c>
+      <c r="H27" s="123" t="n">
+        <v>17.0783</v>
+      </c>
+      <c r="I27" s="130" t="n">
+        <v>0.0501</v>
+      </c>
+    </row>
+    <row r="28" ht="27" customHeight="1">
+      <c r="A28" s="131" t="n"/>
+      <c r="B28" s="121" t="inlineStr">
+        <is>
+          <t>9000678466</t>
+        </is>
+      </c>
+      <c r="C28" s="121" t="inlineStr">
+        <is>
+          <t>01.10.W783049</t>
+        </is>
+      </c>
+      <c r="D28" s="125" t="n"/>
+      <c r="E28" s="129" t="n">
+        <v>180</v>
+      </c>
+      <c r="F28" s="123" t="n">
+        <v>10077.9</v>
+      </c>
+      <c r="G28" s="123" t="n">
+        <v>1075.5</v>
+      </c>
+      <c r="H28" s="123" t="n">
+        <v>1030.5</v>
+      </c>
+      <c r="I28" s="130" t="n">
+        <v>2.97</v>
+      </c>
+    </row>
+    <row r="29" ht="27" customHeight="1">
+      <c r="A29" s="131" t="n"/>
+      <c r="B29" s="121" t="n">
+        <v>9000707953</v>
+      </c>
+      <c r="C29" s="121" t="inlineStr">
+        <is>
+          <t>01.10.U741023</t>
+        </is>
+      </c>
+      <c r="D29" s="125" t="n"/>
+      <c r="E29" s="129" t="n">
+        <v>93</v>
+      </c>
+      <c r="F29" s="123" t="n">
+        <v>5423.2</v>
+      </c>
+      <c r="G29" s="123" t="n">
+        <v>594</v>
+      </c>
+      <c r="H29" s="123" t="n">
+        <v>549</v>
+      </c>
+      <c r="I29" s="130" t="n">
+        <v>1.98</v>
+      </c>
+    </row>
+    <row r="30" ht="27" customHeight="1">
+      <c r="A30" s="131" t="n"/>
+      <c r="B30" s="121" t="n">
+        <v>9000707953</v>
+      </c>
+      <c r="C30" s="121" t="inlineStr">
+        <is>
+          <t>01.10.U741023</t>
+        </is>
+      </c>
+      <c r="D30" s="125" t="n"/>
+      <c r="E30" s="129" t="n">
+        <v>97</v>
+      </c>
+      <c r="F30" s="123" t="n">
+        <v>5447.3</v>
+      </c>
+      <c r="G30" s="123" t="n">
+        <v>593.5</v>
+      </c>
+      <c r="H30" s="123" t="n">
+        <v>548.5</v>
+      </c>
+      <c r="I30" s="130" t="n">
+        <v>1.9404</v>
+      </c>
+    </row>
+    <row r="31" ht="27" customHeight="1">
+      <c r="A31" s="131" t="n"/>
+      <c r="B31" s="121" t="n">
+        <v>9000707953</v>
+      </c>
+      <c r="C31" s="121" t="inlineStr">
+        <is>
+          <t>01.10.U741023</t>
+        </is>
+      </c>
+      <c r="D31" s="125" t="n"/>
+      <c r="E31" s="129" t="n">
+        <v>94</v>
+      </c>
+      <c r="F31" s="123" t="n">
+        <v>5479.1</v>
+      </c>
+      <c r="G31" s="123" t="n">
+        <v>603.0842</v>
+      </c>
+      <c r="H31" s="123" t="n">
+        <v>558.5579</v>
+      </c>
+      <c r="I31" s="130" t="n">
+        <v>2.1943</v>
+      </c>
+    </row>
+    <row r="32" ht="27" customHeight="1">
+      <c r="A32" s="131" t="n"/>
+      <c r="B32" s="121" t="n">
+        <v>9000707953</v>
+      </c>
+      <c r="C32" s="121" t="inlineStr">
+        <is>
+          <t>01.10.U741023</t>
+        </is>
+      </c>
+      <c r="D32" s="125" t="n"/>
+      <c r="E32" s="129" t="n">
+        <v>1</v>
+      </c>
+      <c r="F32" s="123" t="n">
+        <v>56.5</v>
+      </c>
+      <c r="G32" s="123" t="n">
+        <v>6.4158</v>
+      </c>
+      <c r="H32" s="123" t="n">
+        <v>5.9421</v>
+      </c>
+      <c r="I32" s="130" t="n">
+        <v>0.0233</v>
+      </c>
+    </row>
+    <row r="33" ht="27" customHeight="1">
+      <c r="A33" s="131" t="n"/>
+      <c r="B33" s="121" t="n">
+        <v>9000707953</v>
+      </c>
+      <c r="C33" s="121" t="inlineStr">
+        <is>
+          <t>01.10.U741023</t>
+        </is>
+      </c>
+      <c r="D33" s="125" t="n"/>
+      <c r="E33" s="129" t="n">
+        <v>45</v>
+      </c>
+      <c r="F33" s="123" t="n">
+        <v>2603.6</v>
+      </c>
+      <c r="G33" s="123" t="n">
+        <v>283.4211</v>
+      </c>
+      <c r="H33" s="123" t="n">
+        <v>247.8947</v>
+      </c>
+      <c r="I33" s="130" t="n">
+        <v>1.2193</v>
+      </c>
+    </row>
+    <row r="34" ht="27" customHeight="1">
+      <c r="A34" s="131" t="n"/>
+      <c r="B34" s="121" t="n">
+        <v>9000707953</v>
+      </c>
+      <c r="C34" s="121" t="inlineStr">
+        <is>
+          <t>01.10.U741023</t>
+        </is>
+      </c>
+      <c r="D34" s="126" t="n"/>
+      <c r="E34" s="129" t="n">
+        <v>12</v>
+      </c>
+      <c r="F34" s="123" t="n">
+        <v>487.6</v>
+      </c>
+      <c r="G34" s="123" t="n">
+        <v>75.5789</v>
+      </c>
+      <c r="H34" s="123" t="n">
+        <v>66.1053</v>
+      </c>
+      <c r="I34" s="130" t="n">
+        <v>0.3251</v>
+      </c>
+    </row>
+    <row r="35" ht="27" customHeight="1">
+      <c r="A35" s="131" t="n"/>
+      <c r="B35" s="121" t="inlineStr">
+        <is>
+          <t>LEATHER (HS.CODE: 4107.12.00)</t>
+        </is>
+      </c>
+      <c r="C35" s="113" t="n"/>
+      <c r="D35" s="122" t="n"/>
+      <c r="E35" s="129" t="n"/>
+      <c r="F35" s="123" t="n"/>
+      <c r="G35" s="123" t="n"/>
+      <c r="H35" s="123" t="n"/>
+      <c r="I35" s="130" t="n"/>
+    </row>
+    <row r="36" ht="27" customHeight="1">
+      <c r="A36" s="112" t="n"/>
+      <c r="B36" s="112" t="inlineStr">
+        <is>
+          <t>TOTAL:</t>
+        </is>
+      </c>
+      <c r="C36" s="112" t="n"/>
+      <c r="D36" s="112" t="inlineStr">
+        <is>
+          <t>8 PALLETS</t>
+        </is>
+      </c>
+      <c r="E36" s="132">
+        <f>SUM(E23:E34)</f>
+        <v/>
+      </c>
+      <c r="F36" s="114">
+        <f>SUM(F23:F34)</f>
+        <v/>
+      </c>
+      <c r="G36" s="114">
+        <f>SUM(G23:G34)</f>
+        <v/>
+      </c>
+      <c r="H36" s="114">
+        <f>SUM(H23:H34)</f>
+        <v/>
+      </c>
+      <c r="I36" s="133">
+        <f>SUM(I23:I34)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37" ht="27.75" customHeight="1"/>
+    <row r="38" ht="27.75" customHeight="1">
+      <c r="B38" s="134" t="inlineStr">
+        <is>
+          <t>TOTAL OF:</t>
+        </is>
+      </c>
+      <c r="D38" s="134" t="inlineStr">
+        <is>
+          <t>8 PALLETS</t>
+        </is>
+      </c>
+      <c r="E38" s="135">
+        <f>SUM(E23:E34)</f>
+        <v/>
+      </c>
+      <c r="F38" s="136">
+        <f>SUM(F23:F34)</f>
+        <v/>
+      </c>
+      <c r="G38" s="136">
+        <f>SUM(G23:G34)</f>
+        <v/>
+      </c>
+      <c r="H38" s="136">
+        <f>SUM(H23:H34)</f>
+        <v/>
+      </c>
+      <c r="I38" s="137">
+        <f>SUM(I23:I34)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="39" ht="27" customHeight="1">
+      <c r="A39" s="127" t="inlineStr">
+        <is>
+          <t>Mark &amp; Nº</t>
+        </is>
+      </c>
+      <c r="B39" s="127" t="inlineStr">
+        <is>
+          <t>P.O Nº</t>
+        </is>
+      </c>
+      <c r="C39" s="127" t="inlineStr">
+        <is>
+          <t>ITEM Nº</t>
+        </is>
+      </c>
+      <c r="D39" s="127" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="E39" s="127" t="inlineStr">
+        <is>
+          <t>Quantity</t>
+        </is>
+      </c>
+      <c r="F39" s="113" t="n"/>
+      <c r="G39" s="127" t="inlineStr">
+        <is>
+          <t>G.W (kgs)</t>
+        </is>
+      </c>
+      <c r="H39" s="127" t="inlineStr">
+        <is>
+          <t>N.W (kgs)</t>
+        </is>
+      </c>
+      <c r="I39" s="127" t="inlineStr">
+        <is>
+          <t>CBM</t>
+        </is>
+      </c>
+    </row>
+    <row r="40" ht="27" customHeight="1">
+      <c r="A40" s="126" t="n"/>
+      <c r="B40" s="126" t="n"/>
+      <c r="C40" s="126" t="n"/>
+      <c r="D40" s="126" t="n"/>
+      <c r="E40" s="127" t="inlineStr">
+        <is>
+          <t>PCS</t>
+        </is>
+      </c>
+      <c r="F40" s="127" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="G40" s="126" t="n"/>
+      <c r="H40" s="126" t="n"/>
+      <c r="I40" s="126" t="n"/>
+    </row>
+    <row r="41" ht="27" customHeight="1">
+      <c r="A41" s="128" t="inlineStr">
+        <is>
+          <t>VENDOR#:</t>
+        </is>
+      </c>
+      <c r="B41" s="121" t="n">
+        <v>9000719487</v>
+      </c>
+      <c r="C41" s="121" t="inlineStr">
+        <is>
+          <t>01.10.U741023</t>
+        </is>
+      </c>
+      <c r="D41" s="121" t="inlineStr">
+        <is>
+          <t>LEATHER</t>
+        </is>
+      </c>
+      <c r="E41" s="129" t="n">
+        <v>171</v>
+      </c>
+      <c r="F41" s="123" t="n">
+        <v>9892.700000000001</v>
+      </c>
+      <c r="G41" s="123" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" s="123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" s="130" t="n">
+        <v>2.6928</v>
+      </c>
+    </row>
+    <row r="42" ht="27" customHeight="1">
+      <c r="A42" s="131" t="inlineStr">
+        <is>
+          <t>Des: LEATHER</t>
+        </is>
+      </c>
+      <c r="B42" s="121" t="n">
+        <v>9000719487</v>
+      </c>
+      <c r="C42" s="121" t="inlineStr">
+        <is>
+          <t>01.10.U722233</t>
+        </is>
+      </c>
+      <c r="D42" s="125" t="n"/>
+      <c r="E42" s="129" t="n">
+        <v>172</v>
+      </c>
+      <c r="F42" s="123" t="n">
+        <v>9198.4</v>
+      </c>
+      <c r="G42" s="123" t="n">
+        <v>610.234</v>
+      </c>
+      <c r="H42" s="123" t="n">
+        <v>569.0638</v>
+      </c>
+      <c r="I42" s="130" t="n">
+        <v>2.2462</v>
+      </c>
+    </row>
+    <row r="43" ht="27" customHeight="1">
+      <c r="A43" s="131" t="inlineStr">
+        <is>
+          <t>Case Qty:</t>
+        </is>
+      </c>
+      <c r="B43" s="121" t="n">
+        <v>9000719487</v>
+      </c>
+      <c r="C43" s="121" t="inlineStr">
+        <is>
+          <t>01.10.U722233</t>
+        </is>
+      </c>
+      <c r="D43" s="125" t="n"/>
+      <c r="E43" s="129" t="n">
+        <v>16</v>
+      </c>
+      <c r="F43" s="123" t="n">
+        <v>635.8</v>
+      </c>
+      <c r="G43" s="123" t="n">
+        <v>56.766</v>
+      </c>
+      <c r="H43" s="123" t="n">
+        <v>52.9362</v>
+      </c>
+      <c r="I43" s="130" t="n">
+        <v>0.209</v>
+      </c>
+    </row>
+    <row r="44" ht="27" customHeight="1">
+      <c r="A44" s="131" t="inlineStr">
+        <is>
+          <t>MADE IN CAMBODIA</t>
+        </is>
+      </c>
+      <c r="B44" s="121" t="n">
+        <v>9000719487</v>
+      </c>
+      <c r="C44" s="121" t="inlineStr">
+        <is>
+          <t>01.10.U722233</t>
+        </is>
+      </c>
+      <c r="D44" s="125" t="n"/>
+      <c r="E44" s="129" t="n">
+        <v>167</v>
+      </c>
+      <c r="F44" s="123" t="n">
+        <v>9074.200000000001</v>
+      </c>
+      <c r="G44" s="123" t="n">
+        <v>628.1919</v>
+      </c>
+      <c r="H44" s="123" t="n">
+        <v>584.5</v>
+      </c>
+      <c r="I44" s="130" t="n">
+        <v>2.3069</v>
+      </c>
+    </row>
+    <row r="45" ht="27" customHeight="1">
+      <c r="A45" s="131" t="n"/>
+      <c r="B45" s="121" t="n">
+        <v>9000719487</v>
+      </c>
+      <c r="C45" s="121" t="inlineStr">
+        <is>
+          <t>01.10.U722233</t>
+        </is>
+      </c>
+      <c r="D45" s="125" t="n"/>
+      <c r="E45" s="129" t="n">
+        <v>5</v>
+      </c>
+      <c r="F45" s="123" t="n">
+        <v>247</v>
+      </c>
+      <c r="G45" s="123" t="n">
+        <v>18.8081</v>
+      </c>
+      <c r="H45" s="123" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="I45" s="130" t="n">
+        <v>0.06909999999999999</v>
+      </c>
+    </row>
+    <row r="46" ht="27" customHeight="1">
+      <c r="A46" s="131" t="n"/>
+      <c r="B46" s="121" t="n">
+        <v>9000707052</v>
+      </c>
+      <c r="C46" s="121" t="inlineStr">
+        <is>
+          <t>01.10.U528110</t>
+        </is>
+      </c>
+      <c r="D46" s="125" t="n"/>
+      <c r="E46" s="129" t="n">
+        <v>97</v>
+      </c>
+      <c r="F46" s="123" t="n">
+        <v>5048.7</v>
+      </c>
+      <c r="G46" s="123" t="n">
+        <v>455.5</v>
+      </c>
+      <c r="H46" s="123" t="n">
+        <v>410.5</v>
+      </c>
+      <c r="I46" s="130" t="n">
+        <v>1.782</v>
+      </c>
+    </row>
+    <row r="47" ht="27" customHeight="1">
+      <c r="A47" s="131" t="n"/>
+      <c r="B47" s="121" t="n">
+        <v>9000707052</v>
+      </c>
+      <c r="C47" s="121" t="inlineStr">
+        <is>
+          <t>01.10.U528110</t>
+        </is>
+      </c>
+      <c r="D47" s="125" t="n"/>
+      <c r="E47" s="129" t="n">
+        <v>94</v>
+      </c>
+      <c r="F47" s="123" t="n">
+        <v>5012.9</v>
+      </c>
+      <c r="G47" s="123" t="n">
+        <v>455.5</v>
+      </c>
+      <c r="H47" s="123" t="n">
+        <v>410.5</v>
+      </c>
+      <c r="I47" s="130" t="n">
+        <v>1.782</v>
+      </c>
+    </row>
+    <row r="48" ht="27" customHeight="1">
+      <c r="A48" s="131" t="n"/>
+      <c r="B48" s="121" t="n">
+        <v>9000707052</v>
+      </c>
+      <c r="C48" s="121" t="inlineStr">
+        <is>
+          <t>01.10.U528110</t>
+        </is>
+      </c>
+      <c r="D48" s="125" t="n"/>
+      <c r="E48" s="129" t="n">
+        <v>95</v>
+      </c>
+      <c r="F48" s="123" t="n">
+        <v>4996.9</v>
+      </c>
+      <c r="G48" s="123" t="n">
+        <v>452</v>
+      </c>
+      <c r="H48" s="123" t="n">
+        <v>407</v>
+      </c>
+      <c r="I48" s="130" t="n">
+        <v>1.7424</v>
+      </c>
+    </row>
+    <row r="49" ht="27" customHeight="1">
+      <c r="A49" s="131" t="n"/>
+      <c r="B49" s="121" t="n">
+        <v>9000707052</v>
+      </c>
+      <c r="C49" s="121" t="inlineStr">
+        <is>
+          <t>01.10.U528110</t>
+        </is>
+      </c>
+      <c r="D49" s="125" t="n"/>
+      <c r="E49" s="129" t="n">
+        <v>198</v>
+      </c>
+      <c r="F49" s="123" t="n">
+        <v>10511.4</v>
+      </c>
+      <c r="G49" s="123" t="n">
+        <v>876.6079</v>
+      </c>
+      <c r="H49" s="123" t="n">
+        <v>837.3568</v>
+      </c>
+      <c r="I49" s="130" t="n">
+        <v>2.4869</v>
+      </c>
+    </row>
+    <row r="50" ht="27" customHeight="1">
+      <c r="A50" s="131" t="n"/>
+      <c r="B50" s="121" t="n">
+        <v>9000707052</v>
+      </c>
+      <c r="C50" s="121" t="inlineStr">
+        <is>
+          <t>01.10.U528110</t>
+        </is>
+      </c>
+      <c r="D50" s="125" t="n"/>
+      <c r="E50" s="129" t="n">
+        <v>29</v>
+      </c>
+      <c r="F50" s="123" t="n">
+        <v>1162.8</v>
+      </c>
+      <c r="G50" s="123" t="n">
+        <v>128.3921</v>
+      </c>
+      <c r="H50" s="123" t="n">
+        <v>122.6432</v>
+      </c>
+      <c r="I50" s="130" t="n">
+        <v>0.3643</v>
+      </c>
+    </row>
+    <row r="51" ht="27" customHeight="1">
+      <c r="A51" s="131" t="n"/>
+      <c r="B51" s="121" t="n">
+        <v>9000707052</v>
+      </c>
+      <c r="C51" s="121" t="inlineStr">
+        <is>
+          <t>01.10.U528103</t>
+        </is>
+      </c>
+      <c r="D51" s="125" t="n"/>
+      <c r="E51" s="129" t="n">
+        <v>200</v>
+      </c>
+      <c r="F51" s="123" t="n">
+        <v>10017.2</v>
+      </c>
+      <c r="G51" s="123" t="n">
+        <v>858.5</v>
+      </c>
+      <c r="H51" s="123" t="n">
+        <v>813.5</v>
+      </c>
+      <c r="I51" s="130" t="n">
+        <v>2.5344</v>
+      </c>
+    </row>
+    <row r="52" ht="27" customHeight="1">
+      <c r="A52" s="131" t="n"/>
+      <c r="B52" s="121" t="n">
+        <v>9000707052</v>
+      </c>
+      <c r="C52" s="121" t="inlineStr">
+        <is>
+          <t>01.10.U528103</t>
+        </is>
+      </c>
+      <c r="D52" s="125" t="n"/>
+      <c r="E52" s="129" t="n">
+        <v>210</v>
+      </c>
+      <c r="F52" s="123" t="n">
+        <v>10534.2</v>
+      </c>
+      <c r="G52" s="123" t="n">
+        <v>865.4032</v>
+      </c>
+      <c r="H52" s="123" t="n">
+        <v>827.2984</v>
+      </c>
+      <c r="I52" s="130" t="n">
+        <v>2.5149</v>
+      </c>
+    </row>
+    <row r="53" ht="27" customHeight="1">
+      <c r="A53" s="131" t="n"/>
+      <c r="B53" s="121" t="n">
+        <v>9000707052</v>
+      </c>
+      <c r="C53" s="121" t="inlineStr">
+        <is>
+          <t>01.10.U528103</t>
+        </is>
+      </c>
+      <c r="D53" s="126" t="n"/>
+      <c r="E53" s="129" t="n">
+        <v>38</v>
+      </c>
+      <c r="F53" s="123" t="n">
+        <v>1513.7</v>
+      </c>
+      <c r="G53" s="123" t="n">
+        <v>156.5968</v>
+      </c>
+      <c r="H53" s="123" t="n">
+        <v>149.7016</v>
+      </c>
+      <c r="I53" s="130" t="n">
+        <v>0.4551</v>
+      </c>
+    </row>
+    <row r="54" ht="27" customFormat="1" customHeight="1" s="1">
+      <c r="A54" s="131" t="n"/>
+      <c r="B54" s="121" t="inlineStr">
+        <is>
+          <t>LEATHER (HS.CODE: 4107.12.00)</t>
+        </is>
+      </c>
+      <c r="C54" s="113" t="n"/>
+      <c r="D54" s="122" t="n"/>
+      <c r="E54" s="129" t="n"/>
+      <c r="F54" s="123" t="n"/>
+      <c r="G54" s="123" t="n"/>
+      <c r="H54" s="123" t="n"/>
+      <c r="I54" s="130" t="n"/>
+    </row>
+    <row r="55" ht="27" customHeight="1">
+      <c r="A55" s="112" t="n"/>
+      <c r="B55" s="112" t="inlineStr">
+        <is>
+          <t>TOTAL:</t>
+        </is>
+      </c>
+      <c r="C55" s="112" t="n"/>
+      <c r="D55" s="112" t="inlineStr">
+        <is>
+          <t>8 PALLETS</t>
+        </is>
+      </c>
+      <c r="E55" s="132">
+        <f>SUM(E41:E53)</f>
+        <v/>
+      </c>
+      <c r="F55" s="114">
+        <f>SUM(F41:F53)</f>
+        <v/>
+      </c>
+      <c r="G55" s="114">
+        <f>SUM(G41:G53)</f>
+        <v/>
+      </c>
+      <c r="H55" s="114">
+        <f>SUM(H41:H53)</f>
+        <v/>
+      </c>
+      <c r="I55" s="133">
+        <f>SUM(I41:I53)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="56" ht="24" customHeight="1">
+      <c r="B56" s="134" t="inlineStr">
+        <is>
+          <t>TOTAL OF:</t>
+        </is>
+      </c>
+      <c r="D56" s="134" t="inlineStr">
+        <is>
+          <t>16 PALLETS</t>
+        </is>
+      </c>
+      <c r="E56" s="135">
+        <f>SUM(E23:E34,E41:E53)</f>
+        <v/>
+      </c>
+      <c r="F56" s="136">
+        <f>SUM(F23:F34,F41:F53)</f>
+        <v/>
+      </c>
+      <c r="G56" s="136">
+        <f>SUM(G23:G34,G41:G53)</f>
+        <v/>
+      </c>
+      <c r="H56" s="136">
+        <f>SUM(H23:H34,H41:H53)</f>
+        <v/>
+      </c>
+      <c r="I56" s="137">
+        <f>SUM(I23:I34,I41:I53)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="57" ht="69.75" customHeight="1"/>
+    <row r="58" ht="42" customHeight="1">
+      <c r="A58" s="20" t="n"/>
+      <c r="B58" s="65" t="n"/>
+    </row>
+    <row r="59" ht="53.1" customHeight="1">
+      <c r="A59" s="13" t="inlineStr">
         <is>
           <t>Country of Original Cambodia</t>
         </is>
       </c>
-      <c r="B22" s="13" t="n"/>
-      <c r="C22" s="13" t="n"/>
-      <c r="D22" s="101" t="n"/>
-      <c r="E22" s="27" t="n"/>
-      <c r="F22" s="96" t="n"/>
-      <c r="G22" s="96" t="n"/>
-      <c r="H22" s="96" t="n"/>
-    </row>
-    <row r="23" ht="65.25" customHeight="1">
-      <c r="A23" s="28" t="inlineStr">
-        <is>
-          <t>Manufacture:</t>
-        </is>
-      </c>
-      <c r="B23" s="104" t="inlineStr">
-        <is>
-          <t>CALIFOR UPHOLSTERY MATERIALS CO., LTD.
-XIN BAVET SEZ, Road No. 316A, Trapeang Bon and Prey Kokir Villages, Prey Kokir Commune, Chantrea District,Svay Rieng Province, Kingdom of Cambodia, Tel: +855   975910636</t>
-        </is>
-      </c>
-      <c r="E23" s="31" t="n"/>
-      <c r="F23" s="31" t="n"/>
-      <c r="G23" s="31" t="n"/>
-      <c r="H23" s="96" t="n"/>
-    </row>
-    <row r="24" ht="51.75" customHeight="1">
-      <c r="A24" s="104" t="inlineStr">
-        <is>
-          <t>BENEFICIARY BANK：BANK OF CHINA(HONG KONG)LIMITED  PHNOM PENH BRANCH
-                                          /BANK OF CHINA PHNOM PENH BRANCH</t>
-        </is>
-      </c>
-      <c r="E24" s="31" t="n"/>
-      <c r="F24" s="31" t="n"/>
-      <c r="G24" s="31" t="n"/>
-      <c r="H24" s="31" t="n"/>
-    </row>
-    <row r="25" ht="27.75" customHeight="1">
-      <c r="A25" s="99" t="inlineStr">
-        <is>
-          <t>A/C NO:100001100764430</t>
-        </is>
-      </c>
-      <c r="B25" s="99" t="n"/>
-      <c r="C25" s="99" t="n"/>
-      <c r="D25" s="99" t="n"/>
-      <c r="E25" s="16" t="n"/>
-      <c r="F25" s="16" t="n"/>
-      <c r="G25" s="16" t="n"/>
-      <c r="H25" s="16" t="n"/>
-    </row>
-    <row r="26" ht="27.75" customHeight="1">
-      <c r="A26" s="99" t="inlineStr">
-        <is>
-          <t>SWIFT CODE  ：BKCHKHPPXXX</t>
-        </is>
-      </c>
-      <c r="B26" s="99" t="n"/>
-      <c r="C26" s="99" t="n"/>
-      <c r="D26" s="99" t="n"/>
-      <c r="E26" s="16" t="n"/>
-      <c r="F26" s="16" t="n"/>
-      <c r="G26" s="16" t="n"/>
-      <c r="H26" s="16" t="n"/>
-    </row>
-    <row r="27" ht="27.75" customHeight="1">
-      <c r="A27" s="82" t="n"/>
-      <c r="B27" s="83" t="n"/>
-      <c r="C27" s="82" t="n"/>
-      <c r="D27" s="82" t="n"/>
-      <c r="E27" s="84" t="n"/>
-      <c r="F27" s="96" t="inlineStr">
-        <is>
-          <t>CALIFOR UPHOLSTERY MATERIALS CO., LTD.</t>
-        </is>
-      </c>
-      <c r="G27" s="96" t="n"/>
-      <c r="H27" s="84" t="n"/>
-    </row>
-    <row r="28" ht="27.75" customHeight="1"/>
-    <row r="29" ht="27.75" customHeight="1"/>
-    <row r="30" ht="27.75" customHeight="1"/>
-    <row r="31" ht="27.75" customHeight="1"/>
-    <row r="32" ht="27.75" customHeight="1"/>
-    <row r="33" ht="27.75" customHeight="1"/>
-    <row r="34" ht="27.75" customHeight="1"/>
-    <row r="35" ht="27.75" customHeight="1"/>
-    <row r="36" ht="27.75" customHeight="1"/>
-    <row r="37" ht="27.75" customHeight="1"/>
-    <row r="38" ht="27.75" customHeight="1"/>
-    <row r="39" ht="27.75" customHeight="1"/>
-    <row r="40" ht="27.75" customHeight="1">
-      <c r="A40" s="71" t="n"/>
-      <c r="B40" s="67" t="n"/>
-      <c r="C40" s="52" t="n"/>
-      <c r="D40" s="53" t="n"/>
-      <c r="E40" s="54" t="n"/>
-      <c r="F40" s="55" t="n"/>
-      <c r="G40" s="55" t="n"/>
-      <c r="H40" s="55" t="n"/>
-      <c r="I40" s="55" t="n"/>
-    </row>
-    <row r="41" ht="27.75" customHeight="1">
-      <c r="A41" s="21" t="n"/>
-      <c r="B41" s="67" t="n"/>
-      <c r="C41" s="52" t="n"/>
-      <c r="D41" s="53" t="n"/>
-      <c r="E41" s="54" t="n"/>
-      <c r="F41" s="55" t="n"/>
-      <c r="G41" s="55" t="n"/>
-      <c r="H41" s="55" t="n"/>
-      <c r="I41" s="55" t="n"/>
-    </row>
-    <row r="42" ht="27.75" customHeight="1">
-      <c r="A42" s="21" t="n"/>
-      <c r="B42" s="67" t="n"/>
-      <c r="C42" s="52" t="n"/>
-      <c r="D42" s="53" t="n"/>
-      <c r="E42" s="54" t="n"/>
-      <c r="F42" s="55" t="n"/>
-      <c r="G42" s="55" t="n"/>
-      <c r="H42" s="55" t="n"/>
-      <c r="I42" s="55" t="n"/>
-    </row>
-    <row r="43" ht="27.75" customHeight="1">
-      <c r="A43" s="21" t="n"/>
-      <c r="B43" s="67" t="n"/>
-      <c r="C43" s="52" t="n"/>
-      <c r="D43" s="53" t="n"/>
-      <c r="E43" s="54" t="n"/>
-      <c r="F43" s="55" t="n"/>
-      <c r="G43" s="55" t="n"/>
-      <c r="H43" s="55" t="n"/>
-      <c r="I43" s="55" t="n"/>
-    </row>
-    <row r="44" ht="27.75" customHeight="1">
-      <c r="A44" s="21" t="n"/>
-      <c r="B44" s="67" t="n"/>
-      <c r="C44" s="52" t="n"/>
-      <c r="D44" s="53" t="n"/>
-      <c r="E44" s="54" t="n"/>
-      <c r="F44" s="55" t="n"/>
-      <c r="G44" s="55" t="n"/>
-      <c r="H44" s="55" t="n"/>
-      <c r="I44" s="55" t="n"/>
-    </row>
-    <row r="45" ht="27.75" customHeight="1">
-      <c r="A45" s="21" t="n"/>
-      <c r="B45" s="67" t="n"/>
-      <c r="C45" s="52" t="n"/>
-      <c r="D45" s="53" t="n"/>
-      <c r="E45" s="54" t="n"/>
-      <c r="F45" s="55" t="n"/>
-      <c r="G45" s="55" t="n"/>
-      <c r="H45" s="55" t="n"/>
-      <c r="I45" s="55" t="n"/>
-    </row>
-    <row r="46" ht="27.75" customHeight="1">
-      <c r="A46" s="21" t="n"/>
-      <c r="B46" s="67" t="n"/>
-      <c r="C46" s="52" t="n"/>
-      <c r="D46" s="53" t="n"/>
-      <c r="E46" s="54" t="n"/>
-      <c r="F46" s="55" t="n"/>
-      <c r="G46" s="55" t="n"/>
-      <c r="H46" s="55" t="n"/>
-      <c r="I46" s="55" t="n"/>
-    </row>
-    <row r="47" ht="27.75" customHeight="1">
-      <c r="A47" s="21" t="n"/>
-      <c r="B47" s="67" t="n"/>
-      <c r="C47" s="52" t="n"/>
-      <c r="D47" s="53" t="n"/>
-      <c r="E47" s="54" t="n"/>
-      <c r="F47" s="55" t="n"/>
-      <c r="G47" s="55" t="n"/>
-      <c r="H47" s="55" t="n"/>
-      <c r="I47" s="55" t="n"/>
-    </row>
-    <row r="48" ht="27.75" customHeight="1">
-      <c r="A48" s="21" t="n"/>
-      <c r="B48" s="67" t="n"/>
-      <c r="C48" s="52" t="n"/>
-      <c r="D48" s="53" t="n"/>
-      <c r="E48" s="54" t="n"/>
-      <c r="F48" s="55" t="n"/>
-      <c r="G48" s="55" t="n"/>
-      <c r="H48" s="55" t="n"/>
-      <c r="I48" s="55" t="n"/>
-    </row>
-    <row r="49" ht="42" customHeight="1">
-      <c r="A49" s="101" t="n"/>
-      <c r="B49" s="68" t="n"/>
-      <c r="C49" s="24" t="n"/>
-      <c r="D49" s="101" t="n"/>
-      <c r="E49" s="25" t="n"/>
-      <c r="F49" s="26" t="n"/>
-      <c r="G49" s="26" t="n"/>
-      <c r="H49" s="26" t="n"/>
-      <c r="I49" s="26" t="n"/>
-    </row>
-    <row r="50" ht="42" customHeight="1"/>
-    <row r="51" ht="74.09999999999999" customHeight="1"/>
-    <row r="52" ht="44.1" customHeight="1"/>
-    <row r="53" ht="24.75" customHeight="1"/>
-    <row r="54" ht="27" customFormat="1" customHeight="1" s="1">
-      <c r="B54" s="69" t="n"/>
-    </row>
-    <row r="55" ht="42" customHeight="1"/>
-    <row r="56" ht="24" customHeight="1"/>
-    <row r="57" ht="69.75" customHeight="1">
-      <c r="F57" s="96" t="n"/>
-      <c r="G57" s="96" t="n"/>
-      <c r="H57" s="96" t="n"/>
-    </row>
-    <row r="58" ht="42" customHeight="1">
-      <c r="F58" s="96" t="n"/>
-      <c r="G58" s="96" t="n"/>
-      <c r="H58" s="96" t="n"/>
-    </row>
-    <row r="59" ht="53.1" customHeight="1">
+      <c r="B59" s="13" t="n"/>
+      <c r="C59" s="13" t="n"/>
+      <c r="D59" s="101" t="n"/>
+      <c r="E59" s="27" t="n"/>
       <c r="F59" s="96" t="n"/>
       <c r="G59" s="96" t="n"/>
       <c r="H59" s="96" t="n"/>
-      <c r="I59" s="96" t="n"/>
-    </row>
-    <row r="60" ht="27.75" customHeight="1"/>
-    <row r="61" ht="27.75" customHeight="1"/>
-    <row r="62" ht="27.75" customHeight="1"/>
-    <row r="63" ht="24.75" customHeight="1"/>
-    <row r="64" ht="21" customHeight="1"/>
+    </row>
+    <row r="60" ht="27.75" customHeight="1">
+      <c r="A60" s="28" t="inlineStr">
+        <is>
+          <t>Manufacture:</t>
+        </is>
+      </c>
+      <c r="B60" s="104" t="inlineStr">
+        <is>
+          <t>CALIFOR UPHOLSTERY MATERIALS CO., LTD.
+XIN BAVET SEZ, Road No. 316A, Trapeang Bon and Prey Kokir Villages, Prey Kokir Commune, Chantrea District,Svay Rieng Province, Kingdom of Cambodia, Tel: +855   975910636</t>
+        </is>
+      </c>
+      <c r="E60" s="31" t="n"/>
+      <c r="F60" s="31" t="n"/>
+      <c r="G60" s="31" t="n"/>
+      <c r="H60" s="96" t="n"/>
+    </row>
+    <row r="61" ht="27.75" customHeight="1">
+      <c r="A61" s="104" t="inlineStr">
+        <is>
+          <t>BENEFICIARY BANK：BANK OF CHINA(HONG KONG)LIMITED  PHNOM PENH BRANCH
+                                          /BANK OF CHINA PHNOM PENH BRANCH</t>
+        </is>
+      </c>
+      <c r="E61" s="31" t="n"/>
+      <c r="F61" s="31" t="n"/>
+      <c r="G61" s="31" t="n"/>
+      <c r="H61" s="31" t="n"/>
+    </row>
+    <row r="62" ht="27.75" customHeight="1">
+      <c r="A62" s="99" t="inlineStr">
+        <is>
+          <t>A/C NO:100001100764430</t>
+        </is>
+      </c>
+      <c r="B62" s="99" t="n"/>
+      <c r="C62" s="99" t="n"/>
+      <c r="D62" s="99" t="n"/>
+      <c r="E62" s="16" t="n"/>
+      <c r="F62" s="16" t="n"/>
+      <c r="G62" s="16" t="n"/>
+      <c r="H62" s="16" t="n"/>
+    </row>
+    <row r="63" ht="24.75" customHeight="1">
+      <c r="A63" s="99" t="inlineStr">
+        <is>
+          <t>SWIFT CODE  ：BKCHKHPPXXX</t>
+        </is>
+      </c>
+      <c r="B63" s="99" t="n"/>
+      <c r="C63" s="99" t="n"/>
+      <c r="D63" s="99" t="n"/>
+      <c r="E63" s="16" t="n"/>
+      <c r="F63" s="16" t="n"/>
+      <c r="G63" s="16" t="n"/>
+      <c r="H63" s="16" t="n"/>
+    </row>
+    <row r="64" ht="21" customHeight="1">
+      <c r="A64" s="82" t="n"/>
+      <c r="B64" s="83" t="n"/>
+      <c r="C64" s="82" t="n"/>
+      <c r="D64" s="82" t="n"/>
+      <c r="E64" s="84" t="n"/>
+      <c r="F64" s="96" t="inlineStr">
+        <is>
+          <t>CALIFOR UPHOLSTERY MATERIALS CO., LTD.</t>
+        </is>
+      </c>
+      <c r="G64" s="96" t="n"/>
+      <c r="H64" s="84" t="n"/>
+    </row>
     <row r="65" ht="21" customHeight="1"/>
     <row r="66" ht="21" customHeight="1"/>
     <row r="67" ht="21" customHeight="1"/>
@@ -2811,37 +4568,229 @@
     <row r="74" ht="21" customHeight="1"/>
     <row r="75" ht="21" customHeight="1"/>
     <row r="76" ht="21" customHeight="1"/>
-    <row r="77" ht="21" customHeight="1"/>
-    <row r="78" ht="17.25" customHeight="1"/>
+    <row r="77" ht="21" customHeight="1">
+      <c r="A77" s="71" t="n"/>
+      <c r="B77" s="67" t="n"/>
+      <c r="C77" s="52" t="n"/>
+      <c r="D77" s="53" t="n"/>
+      <c r="E77" s="54" t="n"/>
+      <c r="F77" s="55" t="n"/>
+      <c r="G77" s="55" t="n"/>
+      <c r="H77" s="55" t="n"/>
+      <c r="I77" s="55" t="n"/>
+    </row>
+    <row r="78" ht="17.25" customHeight="1">
+      <c r="A78" s="21" t="n"/>
+      <c r="B78" s="67" t="n"/>
+      <c r="C78" s="52" t="n"/>
+      <c r="D78" s="53" t="n"/>
+      <c r="E78" s="54" t="n"/>
+      <c r="F78" s="55" t="n"/>
+      <c r="G78" s="55" t="n"/>
+      <c r="H78" s="55" t="n"/>
+      <c r="I78" s="55" t="n"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="21" t="n"/>
+      <c r="B79" s="67" t="n"/>
+      <c r="C79" s="52" t="n"/>
+      <c r="D79" s="53" t="n"/>
+      <c r="E79" s="54" t="n"/>
+      <c r="F79" s="55" t="n"/>
+      <c r="G79" s="55" t="n"/>
+      <c r="H79" s="55" t="n"/>
+      <c r="I79" s="55" t="n"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="21" t="n"/>
+      <c r="B80" s="67" t="n"/>
+      <c r="C80" s="52" t="n"/>
+      <c r="D80" s="53" t="n"/>
+      <c r="E80" s="54" t="n"/>
+      <c r="F80" s="55" t="n"/>
+      <c r="G80" s="55" t="n"/>
+      <c r="H80" s="55" t="n"/>
+      <c r="I80" s="55" t="n"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="21" t="n"/>
+      <c r="B81" s="67" t="n"/>
+      <c r="C81" s="52" t="n"/>
+      <c r="D81" s="53" t="n"/>
+      <c r="E81" s="54" t="n"/>
+      <c r="F81" s="55" t="n"/>
+      <c r="G81" s="55" t="n"/>
+      <c r="H81" s="55" t="n"/>
+      <c r="I81" s="55" t="n"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="21" t="n"/>
+      <c r="B82" s="67" t="n"/>
+      <c r="C82" s="52" t="n"/>
+      <c r="D82" s="53" t="n"/>
+      <c r="E82" s="54" t="n"/>
+      <c r="F82" s="55" t="n"/>
+      <c r="G82" s="55" t="n"/>
+      <c r="H82" s="55" t="n"/>
+      <c r="I82" s="55" t="n"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="21" t="n"/>
+      <c r="B83" s="67" t="n"/>
+      <c r="C83" s="52" t="n"/>
+      <c r="D83" s="53" t="n"/>
+      <c r="E83" s="54" t="n"/>
+      <c r="F83" s="55" t="n"/>
+      <c r="G83" s="55" t="n"/>
+      <c r="H83" s="55" t="n"/>
+      <c r="I83" s="55" t="n"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="21" t="n"/>
+      <c r="B84" s="67" t="n"/>
+      <c r="C84" s="52" t="n"/>
+      <c r="D84" s="53" t="n"/>
+      <c r="E84" s="54" t="n"/>
+      <c r="F84" s="55" t="n"/>
+      <c r="G84" s="55" t="n"/>
+      <c r="H84" s="55" t="n"/>
+      <c r="I84" s="55" t="n"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="21" t="n"/>
+      <c r="B85" s="67" t="n"/>
+      <c r="C85" s="52" t="n"/>
+      <c r="D85" s="53" t="n"/>
+      <c r="E85" s="54" t="n"/>
+      <c r="F85" s="55" t="n"/>
+      <c r="G85" s="55" t="n"/>
+      <c r="H85" s="55" t="n"/>
+      <c r="I85" s="55" t="n"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="101" t="n"/>
+      <c r="B86" s="68" t="n"/>
+      <c r="C86" s="24" t="n"/>
+      <c r="D86" s="101" t="n"/>
+      <c r="E86" s="25" t="n"/>
+      <c r="F86" s="26" t="n"/>
+      <c r="G86" s="26" t="n"/>
+      <c r="H86" s="26" t="n"/>
+      <c r="I86" s="26" t="n"/>
+    </row>
+    <row r="87"/>
+    <row r="88"/>
+    <row r="89"/>
     <row r="90" ht="15" customHeight="1"/>
-    <row r="97">
-      <c r="I97" s="96" t="n"/>
-    </row>
-    <row r="98" ht="115.7" customHeight="1">
-      <c r="I98" s="96" t="n"/>
-    </row>
-    <row r="99" ht="113.65" customHeight="1">
-      <c r="I99" s="96" t="n"/>
-    </row>
-    <row r="100">
-      <c r="I100" s="16" t="n"/>
-    </row>
-    <row r="101">
-      <c r="I101" s="16" t="n"/>
-    </row>
-    <row r="102">
-      <c r="I102" s="96" t="n"/>
+    <row r="91">
+      <c r="B91" s="69" t="n"/>
+    </row>
+    <row r="92"/>
+    <row r="93"/>
+    <row r="94">
+      <c r="F94" s="96" t="n"/>
+      <c r="G94" s="96" t="n"/>
+      <c r="H94" s="96" t="n"/>
+    </row>
+    <row r="95">
+      <c r="F95" s="96" t="n"/>
+      <c r="G95" s="96" t="n"/>
+      <c r="H95" s="96" t="n"/>
+    </row>
+    <row r="96">
+      <c r="F96" s="96" t="n"/>
+      <c r="G96" s="96" t="n"/>
+      <c r="H96" s="96" t="n"/>
+      <c r="I96" s="96" t="n"/>
+    </row>
+    <row r="97"/>
+    <row r="98" ht="115.7" customHeight="1"/>
+    <row r="99" ht="113.65" customHeight="1"/>
+    <row r="100"/>
+    <row r="101"/>
+    <row r="102"/>
+    <row r="103"/>
+    <row r="104"/>
+    <row r="105"/>
+    <row r="106"/>
+    <row r="107"/>
+    <row r="108"/>
+    <row r="109"/>
+    <row r="110"/>
+    <row r="111"/>
+    <row r="112"/>
+    <row r="113"/>
+    <row r="114"/>
+    <row r="115"/>
+    <row r="116"/>
+    <row r="117"/>
+    <row r="118"/>
+    <row r="119"/>
+    <row r="120"/>
+    <row r="121"/>
+    <row r="122"/>
+    <row r="123"/>
+    <row r="124"/>
+    <row r="125"/>
+    <row r="126"/>
+    <row r="127"/>
+    <row r="128"/>
+    <row r="129"/>
+    <row r="130"/>
+    <row r="131"/>
+    <row r="132"/>
+    <row r="133"/>
+    <row r="134">
+      <c r="I134" s="96" t="n"/>
+    </row>
+    <row r="135">
+      <c r="I135" s="96" t="n"/>
+    </row>
+    <row r="136">
+      <c r="I136" s="96" t="n"/>
+    </row>
+    <row r="137">
+      <c r="I137" s="16" t="n"/>
+    </row>
+    <row r="138">
+      <c r="I138" s="16" t="n"/>
+    </row>
+    <row r="139">
+      <c r="I139" s="96" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="31">
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="B36"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="D23:D34"/>
+    <mergeCell ref="D41:D53"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="H39:H40"/>
     <mergeCell ref="A2:I2"/>
-    <mergeCell ref="B23:D23"/>
     <mergeCell ref="A5:I5"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="B56"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="A37"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="A39:A40"/>
     <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="B38"/>
+    <mergeCell ref="G21:G22"/>
     <mergeCell ref="A6:I6"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="E21:F21"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.314583333333333" bottom="0" header="0" footer="0"/>
